--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C0CFDF-211F-4128-A55C-D4376D95DB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52F919F-ECAD-4567-8988-E6B2FA5C9A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5040,9 +5040,6 @@
     <t>[In PidTagMessageSize Property] Type: PtypInteger32 ([MS-OXCDATA] section 2.11.1)</t>
   </si>
   <si>
-    <t>[In PidTagMessageSize Property] The PidTagMessageSize ([MS-OXPROPS] section 2.785) property: Value is limited to 32 bits and becomes undefined if the content size exceeds four gigabytes.</t>
-  </si>
-  <si>
     <t>[In PidTagMessageSizeExtended Property] Type: PtypInteger64 ([MS-OXCDATA] section 2.11.1)</t>
   </si>
   <si>
@@ -7445,24 +7442,9 @@
     <t>[In Behavior Common to Both Private Mailbox and Public Folder Logon] If the user marks a message as read, the current value of that message's PidTagChangeNumber property ([MS-OXPROPS] section 2.632) is added to the change number set (CNSET).</t>
   </si>
   <si>
-    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Last-modification Time" column (PidTagLastModificationTime property ([MS-OXPROPS] section 2.765)) - Contains the current system-time, in UTC, when the entry was created or last modified.</t>
-  </si>
-  <si>
-    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Message Class" column (PidTagMessageClass property ([MS-OXPROPS] section 2.788)) - Contains a string that specifies the message class that is configured for the Receive folder.</t>
-  </si>
-  <si>
     <t>[In Receiving a RopSetReceiveFolder ROP Request] "Folder ID" column (PidTagFolderId property ([MS-OXPROPS] section 2.702)) - Contains the Folder ID, as specified in [MS-OXCDATA] section 2.2.1.1, of the Receive folder, which is the folder to which messages of the specified message class will be delivered.</t>
   </si>
   <si>
-    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1054) contains the Address book EntryID of the user logged on to the public folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagSentMailSvrEID Property] The PidTagSentMailSvrEID property ([MS-OXPROPS] section 2.1012) contains the structure identifying the Sent Items folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagOutOfOfficeState Property] The PidTagOutOfOfficeState property ([MS-OXPROPS] section 2.856) indicates whether the user is Out of Office (OOF).</t>
-  </si>
-  <si>
     <t>[In PidTagDeleteAfterSubmit Property] The PidTagDeleteAfterSubmit property ([MS-OXPROPS] section 2.669) indicates whether a transport deletes all submitted mail after transmission.</t>
   </si>
   <si>
@@ -7472,54 +7454,12 @@
     <t>[In PidTagCodePageId Property] The PidTagCodePageId property ([MS-OXPROPS] section 2.637) establishes the client code page for Unicode to double-byte character set (DBCS) string conversion. For details, see [MS-UCODEREF].</t>
   </si>
   <si>
-    <t>[In PidTagSortLocaleId Property] The PidTagSortLocaleId property ([MS-OXPROPS] section 2.1022) establishes the language locale for sorting the contents of tables. For more details, see [MS-LCID].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In PidTagSerializedReplidGuidMap Property] The PidTagSerializedReplidGuidMap property ([MS-OXPROPS] section 2.1020) contains a serialized list of REPLID and REPLGUID pairs which represents all or part of the REPLID /REPLGUID mapping of the associated Logon object. </t>
-  </si>
-  <si>
-    <t>[In PidTagLocaleId Property] The PidTagLocaleId property ([MS-OXPROPS] section 2.775) establishes the language locale for translating system-generated messages, such as delivery reports. For more details, see [MS-LCID].</t>
-  </si>
-  <si>
-    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1054) contains the Address book EntryID of the user logged on to the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMessageSizeExtended Property] The PidTagMessageSizeExtended property ([MS-OXPROPS] section 2.798) contains the cumulative size, in bytes, of all content in the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMessageSize Property] The PidTagMessageSize property ([MS-OXPROPS] section 2.797) contains the cumulative size, in bytes, of all content in the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMailboxOwnerName Property] The PidTagMailboxOwnerName property ([MS-OXPROPS] section 2.779) contains the display name of the owner of the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMailboxOwnerEntryId Property] The PidTagMailboxOwnerEntryId property ([MS-OXPROPS] section 2.778) contains the EntryID in the Global Address List (GAL) of the owner of the mailbox.</t>
-  </si>
-  <si>
     <t>[In PidTagContentCount Property] The PidTagContentCount property ([MS-OXPROPS] section 2.647) contains the cumulative count of non-folder associated information (FAI) messages in the mailbox.</t>
   </si>
   <si>
-    <t>[In PidTagStoreState Property] The PidTagStoreState property ([MS-OXPROPS] section 2.1030) indicates whether the mailbox has any active search folders.</t>
-  </si>
-  <si>
-    <t>[In PidTagProhibitSendQuota Property] The PidTagProhibitSendQuota property ([MS-OXPROPS] section 2.876) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before the user can no longer submit any more mail.</t>
-  </si>
-  <si>
-    <t>[In PidTagProhibitReceiveQuota Property] The PidTagProhibitReceiveQuota property ([MS-OXPROPS] section 2.875) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before no further mail will be delivered.</t>
-  </si>
-  <si>
-    <t>[In PidTagMaximumSubmitMessageSize Property] The PidTagMaximumSubmitMessageSize property ([MS-OXPROPS] section 2.782) contains the maximum size, in kilobytes, of a message a user is allowed to submit for transmission to another user.</t>
-  </si>
-  <si>
     <t>[In PidTagExtendedRuleSizeLimit Property] The PidTagExtendedRuleSizeLimit property ([MS-OXPROPS] section 2.695) contains the Maximum size, in bytes, the user is allowed to accumulate for a single "extended" rule.</t>
   </si>
   <si>
-    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer]  [Rows] PidTagLastModificationTime property: PidTagLastModificationTime property ([MS-OXPROPS] section 2.765) -- A PtypTime value that specifies the time, in Coordinated Universal Time (UTC), when the server created or last modified the row in the Receive folder table.</t>
-  </si>
-  <si>
-    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] [Rows] PidTagMessageClass property ([MS-OXPROPS] section 2.788): A PtypString8 value.</t>
-  </si>
-  <si>
     <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] 	[Rows] PidTagFolderId property ([MS-OXPROPS] section 2.702): A PtypInteger64 value that specifies the folder ID (FID) ([MS-OXCDATA] section 2.2.1.1) of the Receive folder, which is the folder to which messages of the specified message class will be delivered.</t>
   </si>
   <si>
@@ -7527,6 +7467,66 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] When the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component, the implementation does return ecNone in the ReturnValue field.  &lt;44&gt; Section 3.2.5.9:  Exchange 2007, Exchange 2016 and Exchange 2019 return ecNone if the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component..</t>
+  </si>
+  <si>
+    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] [Rows] PidTagMessageClass property ([MS-OXPROPS] section 2.789): A PtypString8 value.</t>
+  </si>
+  <si>
+    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Message Class" column (PidTagMessageClass property ([MS-OXPROPS] section 2.789)) - Contains a string that specifies the message class that is configured for the Receive folder.</t>
+  </si>
+  <si>
+    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Last-modification Time" column (PidTagLastModificationTime property ([MS-OXPROPS] section 2.766)) - Contains the current system-time, in UTC, when the entry was created or last modified.</t>
+  </si>
+  <si>
+    <t>[In PidTagMaximumSubmitMessageSize Property] The PidTagMaximumSubmitMessageSize property ([MS-OXPROPS] section 2.783) contains the maximum size, in kilobytes, of a message a user is allowed to submit for transmission to another user.</t>
+  </si>
+  <si>
+    <t>[In PidTagProhibitSendQuota Property] The PidTagProhibitSendQuota property ([MS-OXPROPS] section 2.877) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before the user can no longer submit any more mail.</t>
+  </si>
+  <si>
+    <t>[In PidTagStoreState Property] The PidTagStoreState property ([MS-OXPROPS] section 2.1031) indicates whether the mailbox has any active search folders.</t>
+  </si>
+  <si>
+    <t>[In PidTagMailboxOwnerEntryId Property] The PidTagMailboxOwnerEntryId property ([MS-OXPROPS] section 2.779) contains the EntryID in the Global Address List (GAL) of the owner of the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMailboxOwnerName Property] The PidTagMailboxOwnerName property ([MS-OXPROPS] section 2.780) contains the display name of the owner of the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSize Property] The PidTagMessageSize property ([MS-OXPROPS] section 2.798) contains the cumulative size, in bytes, of all content in the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSize Property] The PidTagMessageSize ([MS-OXPROPS] section 2.798) property: Value is limited to 32 bits and becomes undefined if the content size exceeds four gigabytes.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSizeExtended Property] The PidTagMessageSizeExtended property ([MS-OXPROPS] section 2.799) contains the cumulative size, in bytes, of all content in the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1055) contains the Address book EntryID of the user logged on to the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagLocaleId Property] The PidTagLocaleId property ([MS-OXPROPS] section 2.776) establishes the language locale for translating system-generated messages, such as delivery reports. For more details, see [MS-LCID].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In PidTagSerializedReplidGuidMap Property] The PidTagSerializedReplidGuidMap property ([MS-OXPROPS] section 2.1021) contains a serialized list of REPLID and REPLGUID pairs which represents all or part of the REPLID /REPLGUID mapping of the associated Logon object. </t>
+  </si>
+  <si>
+    <t>[In PidTagSortLocaleId Property] The PidTagSortLocaleId property ([MS-OXPROPS] section 2.1023) establishes the language locale for sorting the contents of tables. For more details, see [MS-LCID].</t>
+  </si>
+  <si>
+    <t>[In PidTagOutOfOfficeState Property] The PidTagOutOfOfficeState property ([MS-OXPROPS] section 2.857) indicates whether the user is Out of Office (OOF).</t>
+  </si>
+  <si>
+    <t>[In PidTagSentMailSvrEID Property] The PidTagSentMailSvrEID property ([MS-OXPROPS] section 2.1013) contains the structure identifying the Sent Items folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1055) contains the Address book EntryID of the user logged on to the public folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagProhibitReceiveQuota Property] The PidTagProhibitReceiveQuota property ([MS-OXPROPS] section 2.873) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before no further mail will be delivered.</t>
+  </si>
+  <si>
+    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer]  [Rows] PidTagLastModificationTime property: PidTagLastModificationTime property ([MS-OXPROPS] section 2.766) -- A PtypTime value that specifies the time, in Coordinated Universal Time (UTC), when the server created or last modified the row in the Receive folder table.</t>
   </si>
 </sst>
 </file>
@@ -8744,8 +8744,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1044" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1046" sqref="E1046"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8765,7 +8765,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -8788,7 +8788,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>2425</v>
+        <v>2405</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>26</v>
@@ -9623,13 +9623,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="25" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>1109</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25" t="s">
@@ -9648,13 +9648,13 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="25" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>1109</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25" t="s">
@@ -9920,7 +9920,7 @@
         <v>17</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30">
@@ -10156,7 +10156,7 @@
         <v>1109</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="25" t="s">
@@ -10172,7 +10172,7 @@
         <v>17</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30">
@@ -10208,7 +10208,7 @@
         <v>1109</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="25" t="s">
@@ -10249,7 +10249,7 @@
         <v>17</v>
       </c>
       <c r="I66" s="27" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="45">
@@ -10263,7 +10263,7 @@
         <v>1261</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>19</v>
@@ -10312,7 +10312,7 @@
         <v>1109</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D69" s="25"/>
       <c r="E69" s="25" t="s">
@@ -10328,7 +10328,7 @@
         <v>17</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="30">
@@ -10405,7 +10405,7 @@
         <v>17</v>
       </c>
       <c r="I72" s="27" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="30">
@@ -10882,7 +10882,7 @@
         <v>17</v>
       </c>
       <c r="I91" s="27" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="45">
@@ -11468,7 +11468,7 @@
         <v>1111</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="25" t="s">
@@ -11484,7 +11484,7 @@
         <v>17</v>
       </c>
       <c r="I115" s="27" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="30">
@@ -11661,7 +11661,7 @@
         <v>17</v>
       </c>
       <c r="I122" s="27" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="90">
@@ -11672,7 +11672,7 @@
         <v>1112</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="25" t="s">
@@ -11688,7 +11688,7 @@
         <v>17</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="30">
@@ -11874,7 +11874,7 @@
         <v>1112</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D131" s="25"/>
       <c r="E131" s="25" t="s">
@@ -11890,7 +11890,7 @@
         <v>17</v>
       </c>
       <c r="I131" s="27" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="30">
@@ -13501,7 +13501,7 @@
         <v>1122</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>2424</v>
+        <v>2404</v>
       </c>
       <c r="D196" s="25"/>
       <c r="E196" s="25" t="s">
@@ -13551,7 +13551,7 @@
         <v>1122</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>2423</v>
+        <v>2407</v>
       </c>
       <c r="D198" s="25"/>
       <c r="E198" s="25" t="s">
@@ -13801,7 +13801,7 @@
         <v>1122</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>2422</v>
+        <v>2426</v>
       </c>
       <c r="D208" s="25"/>
       <c r="E208" s="25" t="s">
@@ -13876,7 +13876,7 @@
         <v>1124</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D211" s="25"/>
       <c r="E211" s="25" t="s">
@@ -13892,7 +13892,7 @@
         <v>17</v>
       </c>
       <c r="I211" s="27" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="30">
@@ -14303,7 +14303,7 @@
         <v>1129</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D228" s="25"/>
       <c r="E228" s="25" t="s">
@@ -14319,7 +14319,7 @@
         <v>17</v>
       </c>
       <c r="I228" s="27" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="45">
@@ -14680,7 +14680,7 @@
         <v>1132</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D243" s="25"/>
       <c r="E243" s="25" t="s">
@@ -14696,7 +14696,7 @@
         <v>17</v>
       </c>
       <c r="I243" s="17" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="30">
@@ -14773,7 +14773,7 @@
         <v>17</v>
       </c>
       <c r="I246" s="27" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="45">
@@ -14950,7 +14950,7 @@
         <v>17</v>
       </c>
       <c r="I253" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="60">
@@ -14977,7 +14977,7 @@
         <v>17</v>
       </c>
       <c r="I254" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="60">
@@ -15004,7 +15004,7 @@
         <v>17</v>
       </c>
       <c r="I255" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="60">
@@ -15031,7 +15031,7 @@
         <v>17</v>
       </c>
       <c r="I256" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="30">
@@ -15108,7 +15108,7 @@
         <v>17</v>
       </c>
       <c r="I259" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="60">
@@ -15135,7 +15135,7 @@
         <v>17</v>
       </c>
       <c r="I260" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="60">
@@ -15162,7 +15162,7 @@
         <v>17</v>
       </c>
       <c r="I261" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="30">
@@ -15214,7 +15214,7 @@
         <v>17</v>
       </c>
       <c r="I263" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="60">
@@ -15241,7 +15241,7 @@
         <v>17</v>
       </c>
       <c r="I264" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="60">
@@ -15268,7 +15268,7 @@
         <v>17</v>
       </c>
       <c r="I265" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="30">
@@ -15320,7 +15320,7 @@
         <v>17</v>
       </c>
       <c r="I267" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="45">
@@ -18356,7 +18356,7 @@
         <v>1161</v>
       </c>
       <c r="C389" s="17" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D389" s="25"/>
       <c r="E389" s="25" t="s">
@@ -18384,7 +18384,7 @@
         <v>1573</v>
       </c>
       <c r="D390" s="25" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E390" s="25" t="s">
         <v>19</v>
@@ -18411,7 +18411,7 @@
         <v>1574</v>
       </c>
       <c r="D391" s="25" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E391" s="25" t="s">
         <v>19</v>
@@ -18438,7 +18438,7 @@
         <v>1575</v>
       </c>
       <c r="D392" s="25" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E392" s="25" t="s">
         <v>19</v>
@@ -18465,7 +18465,7 @@
         <v>1576</v>
       </c>
       <c r="D393" s="25" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E393" s="25" t="s">
         <v>19</v>
@@ -18492,7 +18492,7 @@
         <v>1577</v>
       </c>
       <c r="D394" s="25" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E394" s="25" t="s">
         <v>19</v>
@@ -18519,7 +18519,7 @@
         <v>1578</v>
       </c>
       <c r="D395" s="25" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E395" s="25" t="s">
         <v>19</v>
@@ -18546,7 +18546,7 @@
         <v>1579</v>
       </c>
       <c r="D396" s="25" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E396" s="25" t="s">
         <v>19</v>
@@ -18573,7 +18573,7 @@
         <v>1580</v>
       </c>
       <c r="D397" s="25" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E397" s="25" t="s">
         <v>19</v>
@@ -18600,7 +18600,7 @@
         <v>1581</v>
       </c>
       <c r="D398" s="25" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E398" s="25" t="s">
         <v>19</v>
@@ -18627,7 +18627,7 @@
         <v>1582</v>
       </c>
       <c r="D399" s="25" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E399" s="25" t="s">
         <v>19</v>
@@ -18654,7 +18654,7 @@
         <v>1583</v>
       </c>
       <c r="D400" s="25" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E400" s="25" t="s">
         <v>19</v>
@@ -18681,7 +18681,7 @@
         <v>1584</v>
       </c>
       <c r="D401" s="25" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E401" s="25" t="s">
         <v>19</v>
@@ -18730,7 +18730,7 @@
         <v>1162</v>
       </c>
       <c r="C403" s="17" t="s">
-        <v>2421</v>
+        <v>2403</v>
       </c>
       <c r="D403" s="25"/>
       <c r="E403" s="25" t="s">
@@ -18805,7 +18805,7 @@
         <v>1163</v>
       </c>
       <c r="C406" s="17" t="s">
-        <v>2420</v>
+        <v>2410</v>
       </c>
       <c r="D406" s="25"/>
       <c r="E406" s="25" t="s">
@@ -18880,7 +18880,7 @@
         <v>1164</v>
       </c>
       <c r="C409" s="17" t="s">
-        <v>2419</v>
+        <v>2425</v>
       </c>
       <c r="D409" s="25"/>
       <c r="E409" s="25" t="s">
@@ -18955,7 +18955,7 @@
         <v>1165</v>
       </c>
       <c r="C412" s="17" t="s">
-        <v>2418</v>
+        <v>2411</v>
       </c>
       <c r="D412" s="25"/>
       <c r="E412" s="25" t="s">
@@ -19030,7 +19030,7 @@
         <v>1166</v>
       </c>
       <c r="C415" s="17" t="s">
-        <v>2417</v>
+        <v>2412</v>
       </c>
       <c r="D415" s="25"/>
       <c r="E415" s="25" t="s">
@@ -19055,7 +19055,7 @@
         <v>1166</v>
       </c>
       <c r="C416" s="17" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D416" s="25"/>
       <c r="E416" s="25" t="s">
@@ -19074,13 +19074,13 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="18" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B417" s="26" t="s">
         <v>1166</v>
       </c>
       <c r="C417" s="34" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D417" s="33"/>
       <c r="E417" s="25" t="s">
@@ -19130,7 +19130,7 @@
         <v>1167</v>
       </c>
       <c r="C419" s="17" t="s">
-        <v>2416</v>
+        <v>2402</v>
       </c>
       <c r="D419" s="25"/>
       <c r="E419" s="25" t="s">
@@ -19180,7 +19180,7 @@
         <v>1168</v>
       </c>
       <c r="C421" s="17" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="D421" s="25"/>
       <c r="E421" s="25" t="s">
@@ -19280,7 +19280,7 @@
         <v>1170</v>
       </c>
       <c r="C425" s="17" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
       <c r="D425" s="25"/>
       <c r="E425" s="25" t="s">
@@ -19304,8 +19304,8 @@
       <c r="B426" s="26" t="s">
         <v>1170</v>
       </c>
-      <c r="C426" s="27" t="s">
-        <v>1598</v>
+      <c r="C426" s="17" t="s">
+        <v>2416</v>
       </c>
       <c r="D426" s="25"/>
       <c r="E426" s="25" t="s">
@@ -19330,7 +19330,7 @@
         <v>1171</v>
       </c>
       <c r="C427" s="27" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D427" s="25"/>
       <c r="E427" s="25" t="s">
@@ -19355,7 +19355,7 @@
         <v>1171</v>
       </c>
       <c r="C428" s="17" t="s">
-        <v>2412</v>
+        <v>2417</v>
       </c>
       <c r="D428" s="25"/>
       <c r="E428" s="25" t="s">
@@ -19380,7 +19380,7 @@
         <v>1172</v>
       </c>
       <c r="C429" s="27" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D429" s="25"/>
       <c r="E429" s="25" t="s">
@@ -19405,7 +19405,7 @@
         <v>1172</v>
       </c>
       <c r="C430" s="17" t="s">
-        <v>2411</v>
+        <v>2418</v>
       </c>
       <c r="D430" s="25"/>
       <c r="E430" s="25" t="s">
@@ -19430,7 +19430,7 @@
         <v>1173</v>
       </c>
       <c r="C431" s="27" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D431" s="25"/>
       <c r="E431" s="25" t="s">
@@ -19455,7 +19455,7 @@
         <v>1173</v>
       </c>
       <c r="C432" s="17" t="s">
-        <v>2410</v>
+        <v>2419</v>
       </c>
       <c r="D432" s="25"/>
       <c r="E432" s="25" t="s">
@@ -19474,13 +19474,13 @@
     </row>
     <row r="433" spans="1:9" ht="30">
       <c r="A433" s="18" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B433" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C433" s="32" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D433" s="30"/>
       <c r="E433" s="25" t="s">
@@ -19499,13 +19499,13 @@
     </row>
     <row r="434" spans="1:9" ht="45">
       <c r="A434" s="18" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B434" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C434" s="17" t="s">
-        <v>2409</v>
+        <v>2420</v>
       </c>
       <c r="D434" s="30"/>
       <c r="E434" s="25" t="s">
@@ -19524,13 +19524,13 @@
     </row>
     <row r="435" spans="1:9" ht="75">
       <c r="A435" s="18" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B435" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C435" s="32" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D435" s="30"/>
       <c r="E435" s="25" t="s">
@@ -19549,13 +19549,13 @@
     </row>
     <row r="436" spans="1:9" ht="45">
       <c r="A436" s="18" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B436" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C436" s="32" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D436" s="30"/>
       <c r="E436" s="25" t="s">
@@ -19574,13 +19574,13 @@
     </row>
     <row r="437" spans="1:9" ht="45">
       <c r="A437" s="18" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B437" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C437" s="32" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D437" s="30"/>
       <c r="E437" s="30" t="s">
@@ -19599,13 +19599,13 @@
     </row>
     <row r="438" spans="1:9" ht="30">
       <c r="A438" s="18" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B438" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C438" s="32" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D438" s="30"/>
       <c r="E438" s="30" t="s">
@@ -19624,13 +19624,13 @@
     </row>
     <row r="439" spans="1:9" ht="30">
       <c r="A439" s="18" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B439" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C439" s="32" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D439" s="30"/>
       <c r="E439" s="25" t="s">
@@ -19655,7 +19655,7 @@
         <v>1175</v>
       </c>
       <c r="C440" s="17" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D440" s="25"/>
       <c r="E440" s="25" t="s">
@@ -19680,7 +19680,7 @@
         <v>1175</v>
       </c>
       <c r="C441" s="17" t="s">
-        <v>2408</v>
+        <v>2421</v>
       </c>
       <c r="D441" s="25"/>
       <c r="E441" s="25" t="s">
@@ -19705,7 +19705,7 @@
         <v>1175</v>
       </c>
       <c r="C442" s="27" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D442" s="25"/>
       <c r="E442" s="25" t="s">
@@ -19727,10 +19727,10 @@
         <v>456</v>
       </c>
       <c r="B443" s="20" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="C443" s="27" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D443" s="25"/>
       <c r="E443" s="25" t="s">
@@ -19752,10 +19752,10 @@
         <v>457</v>
       </c>
       <c r="B444" s="20" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="C444" s="17" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="D444" s="25"/>
       <c r="E444" s="25" t="s">
@@ -19780,7 +19780,7 @@
         <v>1176</v>
       </c>
       <c r="C445" s="17" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D445" s="25"/>
       <c r="E445" s="25" t="s">
@@ -19805,10 +19805,10 @@
         <v>1176</v>
       </c>
       <c r="C446" s="17" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D446" s="25" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E446" s="25" t="s">
         <v>19</v>
@@ -19823,7 +19823,7 @@
         <v>17</v>
       </c>
       <c r="I446" s="17" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="447" spans="1:9">
@@ -19834,10 +19834,10 @@
         <v>1176</v>
       </c>
       <c r="C447" s="27" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D447" s="25" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E447" s="25" t="s">
         <v>19</v>
@@ -19861,7 +19861,7 @@
         <v>1176</v>
       </c>
       <c r="C448" s="17" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D448" s="25"/>
       <c r="E448" s="25" t="s">
@@ -19877,7 +19877,7 @@
         <v>17</v>
       </c>
       <c r="I448" s="27" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="449" spans="1:9">
@@ -19888,10 +19888,10 @@
         <v>1176</v>
       </c>
       <c r="C449" s="17" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E449" s="25" t="s">
         <v>19</v>
@@ -19915,10 +19915,10 @@
         <v>1176</v>
       </c>
       <c r="C450" s="27" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E450" s="25" t="s">
         <v>19</v>
@@ -19942,10 +19942,10 @@
         <v>1176</v>
       </c>
       <c r="C451" s="27" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D451" s="25" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E451" s="25" t="s">
         <v>19</v>
@@ -19969,10 +19969,10 @@
         <v>1176</v>
       </c>
       <c r="C452" s="27" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D452" s="25" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E452" s="25" t="s">
         <v>19</v>
@@ -19996,10 +19996,10 @@
         <v>1176</v>
       </c>
       <c r="C453" s="27" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D453" s="25" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E453" s="25" t="s">
         <v>19</v>
@@ -20023,7 +20023,7 @@
         <v>1177</v>
       </c>
       <c r="C454" s="27" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D454" s="25"/>
       <c r="E454" s="25" t="s">
@@ -20048,7 +20048,7 @@
         <v>1177</v>
       </c>
       <c r="C455" s="17" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="D455" s="25"/>
       <c r="E455" s="25" t="s">
@@ -20073,7 +20073,7 @@
         <v>1178</v>
       </c>
       <c r="C456" s="27" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D456" s="25"/>
       <c r="E456" s="25" t="s">
@@ -20098,7 +20098,7 @@
         <v>1178</v>
       </c>
       <c r="C457" s="17" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="D457" s="25"/>
       <c r="E457" s="25" t="s">
@@ -20123,7 +20123,7 @@
         <v>1178</v>
       </c>
       <c r="C458" s="27" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D458" s="25"/>
       <c r="E458" s="25" t="s">
@@ -20148,7 +20148,7 @@
         <v>1178</v>
       </c>
       <c r="C459" s="27" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D459" s="25"/>
       <c r="E459" s="25" t="s">
@@ -20173,7 +20173,7 @@
         <v>1179</v>
       </c>
       <c r="C460" s="27" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D460" s="25"/>
       <c r="E460" s="25" t="s">
@@ -20198,7 +20198,7 @@
         <v>1179</v>
       </c>
       <c r="C461" s="17" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D461" s="25"/>
       <c r="E461" s="25" t="s">
@@ -20223,7 +20223,7 @@
         <v>1180</v>
       </c>
       <c r="C462" s="27" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D462" s="25"/>
       <c r="E462" s="25" t="s">
@@ -20248,7 +20248,7 @@
         <v>1180</v>
       </c>
       <c r="C463" s="17" t="s">
-        <v>2404</v>
+        <v>2422</v>
       </c>
       <c r="D463" s="25"/>
       <c r="E463" s="25" t="s">
@@ -20273,7 +20273,7 @@
         <v>1180</v>
       </c>
       <c r="C464" s="17" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D464" s="25"/>
       <c r="E464" s="25" t="s">
@@ -20298,7 +20298,7 @@
         <v>1180</v>
       </c>
       <c r="C465" s="27" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D465" s="25"/>
       <c r="E465" s="25" t="s">
@@ -20323,7 +20323,7 @@
         <v>1180</v>
       </c>
       <c r="C466" s="27" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D466" s="25"/>
       <c r="E466" s="25" t="s">
@@ -20348,7 +20348,7 @@
         <v>1181</v>
       </c>
       <c r="C467" s="27" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D467" s="25"/>
       <c r="E467" s="25" t="s">
@@ -20373,7 +20373,7 @@
         <v>1181</v>
       </c>
       <c r="C468" s="17" t="s">
-        <v>2403</v>
+        <v>2423</v>
       </c>
       <c r="D468" s="25"/>
       <c r="E468" s="25" t="s">
@@ -20398,7 +20398,7 @@
         <v>1181</v>
       </c>
       <c r="C469" s="27" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D469" s="25"/>
       <c r="E469" s="25" t="s">
@@ -20423,7 +20423,7 @@
         <v>1181</v>
       </c>
       <c r="C470" s="27" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D470" s="25"/>
       <c r="E470" s="25" t="s">
@@ -20448,7 +20448,7 @@
         <v>1182</v>
       </c>
       <c r="C471" s="27" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D471" s="25"/>
       <c r="E471" s="25" t="s">
@@ -20473,7 +20473,7 @@
         <v>1182</v>
       </c>
       <c r="C472" s="27" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D472" s="25"/>
       <c r="E472" s="25" t="s">
@@ -20498,10 +20498,10 @@
         <v>1182</v>
       </c>
       <c r="C473" s="27" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D473" s="25" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E473" s="25" t="s">
         <v>19</v>
@@ -20525,10 +20525,10 @@
         <v>1182</v>
       </c>
       <c r="C474" s="27" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D474" s="25" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E474" s="25" t="s">
         <v>19</v>
@@ -20552,7 +20552,7 @@
         <v>1183</v>
       </c>
       <c r="C475" s="27" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D475" s="25"/>
       <c r="E475" s="25" t="s">
@@ -20568,7 +20568,7 @@
         <v>20</v>
       </c>
       <c r="I475" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="30">
@@ -20579,7 +20579,7 @@
         <v>1183</v>
       </c>
       <c r="C476" s="17" t="s">
-        <v>2402</v>
+        <v>2424</v>
       </c>
       <c r="D476" s="25"/>
       <c r="E476" s="25" t="s">
@@ -20604,7 +20604,7 @@
         <v>1183</v>
       </c>
       <c r="C477" s="27" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D477" s="25"/>
       <c r="E477" s="25" t="s">
@@ -20629,7 +20629,7 @@
         <v>1184</v>
       </c>
       <c r="C478" s="27" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D478" s="25"/>
       <c r="E478" s="25" t="s">
@@ -20654,7 +20654,7 @@
         <v>1184</v>
       </c>
       <c r="C479" s="17" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D479" s="25"/>
       <c r="E479" s="25" t="s">
@@ -20679,7 +20679,7 @@
         <v>1184</v>
       </c>
       <c r="C480" s="27" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D480" s="25"/>
       <c r="E480" s="25" t="s">
@@ -20704,7 +20704,7 @@
         <v>1185</v>
       </c>
       <c r="C481" s="27" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D481" s="25"/>
       <c r="E481" s="25" t="s">
@@ -20729,7 +20729,7 @@
         <v>1185</v>
       </c>
       <c r="C482" s="27" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D482" s="25"/>
       <c r="E482" s="25" t="s">
@@ -20754,7 +20754,7 @@
         <v>1185</v>
       </c>
       <c r="C483" s="27" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D483" s="25"/>
       <c r="E483" s="25" t="s">
@@ -20779,7 +20779,7 @@
         <v>1185</v>
       </c>
       <c r="C484" s="27" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D484" s="25"/>
       <c r="E484" s="25" t="s">
@@ -20804,7 +20804,7 @@
         <v>1185</v>
       </c>
       <c r="C485" s="27" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D485" s="25"/>
       <c r="E485" s="25" t="s">
@@ -20829,7 +20829,7 @@
         <v>1185</v>
       </c>
       <c r="C486" s="27" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D486" s="25"/>
       <c r="E486" s="25" t="s">
@@ -20854,7 +20854,7 @@
         <v>32</v>
       </c>
       <c r="C487" s="27" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D487" s="25"/>
       <c r="E487" s="25" t="s">
@@ -20879,7 +20879,7 @@
         <v>32</v>
       </c>
       <c r="C488" s="17" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D488" s="25"/>
       <c r="E488" s="25" t="s">
@@ -20904,7 +20904,7 @@
         <v>32</v>
       </c>
       <c r="C489" s="27" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D489" s="25"/>
       <c r="E489" s="25" t="s">
@@ -20929,7 +20929,7 @@
         <v>32</v>
       </c>
       <c r="C490" s="27" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D490" s="25"/>
       <c r="E490" s="25" t="s">
@@ -20954,7 +20954,7 @@
         <v>32</v>
       </c>
       <c r="C491" s="27" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D491" s="25"/>
       <c r="E491" s="25" t="s">
@@ -20979,7 +20979,7 @@
         <v>32</v>
       </c>
       <c r="C492" s="27" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D492" s="25"/>
       <c r="E492" s="25" t="s">
@@ -21004,7 +21004,7 @@
         <v>32</v>
       </c>
       <c r="C493" s="27" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D493" s="25"/>
       <c r="E493" s="25" t="s">
@@ -21029,7 +21029,7 @@
         <v>32</v>
       </c>
       <c r="C494" s="27" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D494" s="25"/>
       <c r="E494" s="25" t="s">
@@ -21054,7 +21054,7 @@
         <v>33</v>
       </c>
       <c r="C495" s="27" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D495" s="25"/>
       <c r="E495" s="25" t="s">
@@ -21079,7 +21079,7 @@
         <v>33</v>
       </c>
       <c r="C496" s="27" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D496" s="25"/>
       <c r="E496" s="25" t="s">
@@ -21104,7 +21104,7 @@
         <v>33</v>
       </c>
       <c r="C497" s="27" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D497" s="25"/>
       <c r="E497" s="25" t="s">
@@ -21129,7 +21129,7 @@
         <v>33</v>
       </c>
       <c r="C498" s="27" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D498" s="25"/>
       <c r="E498" s="25" t="s">
@@ -21154,7 +21154,7 @@
         <v>33</v>
       </c>
       <c r="C499" s="27" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D499" s="25"/>
       <c r="E499" s="25" t="s">
@@ -21179,7 +21179,7 @@
         <v>33</v>
       </c>
       <c r="C500" s="27" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D500" s="25"/>
       <c r="E500" s="25" t="s">
@@ -21204,7 +21204,7 @@
         <v>33</v>
       </c>
       <c r="C501" s="27" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D501" s="25"/>
       <c r="E501" s="25" t="s">
@@ -21229,7 +21229,7 @@
         <v>1186</v>
       </c>
       <c r="C502" s="27" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D502" s="25"/>
       <c r="E502" s="25" t="s">
@@ -21254,7 +21254,7 @@
         <v>1186</v>
       </c>
       <c r="C503" s="27" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D503" s="25"/>
       <c r="E503" s="25" t="s">
@@ -21279,7 +21279,7 @@
         <v>1186</v>
       </c>
       <c r="C504" s="27" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D504" s="25"/>
       <c r="E504" s="25" t="s">
@@ -21304,7 +21304,7 @@
         <v>1186</v>
       </c>
       <c r="C505" s="27" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D505" s="25"/>
       <c r="E505" s="25" t="s">
@@ -21329,7 +21329,7 @@
         <v>1186</v>
       </c>
       <c r="C506" s="27" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D506" s="25"/>
       <c r="E506" s="25" t="s">
@@ -21354,7 +21354,7 @@
         <v>1186</v>
       </c>
       <c r="C507" s="27" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D507" s="25"/>
       <c r="E507" s="25" t="s">
@@ -21379,7 +21379,7 @@
         <v>1186</v>
       </c>
       <c r="C508" s="27" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D508" s="25"/>
       <c r="E508" s="25" t="s">
@@ -21404,7 +21404,7 @@
         <v>1186</v>
       </c>
       <c r="C509" s="27" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D509" s="25"/>
       <c r="E509" s="25" t="s">
@@ -21429,7 +21429,7 @@
         <v>1186</v>
       </c>
       <c r="C510" s="27" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D510" s="25"/>
       <c r="E510" s="25" t="s">
@@ -21454,7 +21454,7 @@
         <v>1186</v>
       </c>
       <c r="C511" s="27" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D511" s="25"/>
       <c r="E511" s="25" t="s">
@@ -21479,7 +21479,7 @@
         <v>1186</v>
       </c>
       <c r="C512" s="27" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D512" s="25"/>
       <c r="E512" s="25" t="s">
@@ -21504,7 +21504,7 @@
         <v>1186</v>
       </c>
       <c r="C513" s="27" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D513" s="25"/>
       <c r="E513" s="25" t="s">
@@ -21529,7 +21529,7 @@
         <v>1186</v>
       </c>
       <c r="C514" s="27" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D514" s="25"/>
       <c r="E514" s="25" t="s">
@@ -21554,7 +21554,7 @@
         <v>1186</v>
       </c>
       <c r="C515" s="27" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D515" s="25"/>
       <c r="E515" s="25" t="s">
@@ -21579,7 +21579,7 @@
         <v>1187</v>
       </c>
       <c r="C516" s="27" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D516" s="25"/>
       <c r="E516" s="25" t="s">
@@ -21604,7 +21604,7 @@
         <v>1187</v>
       </c>
       <c r="C517" s="27" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D517" s="25"/>
       <c r="E517" s="25" t="s">
@@ -21629,7 +21629,7 @@
         <v>1187</v>
       </c>
       <c r="C518" s="27" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D518" s="25"/>
       <c r="E518" s="25" t="s">
@@ -21654,7 +21654,7 @@
         <v>1188</v>
       </c>
       <c r="C519" s="27" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D519" s="25"/>
       <c r="E519" s="25" t="s">
@@ -21679,7 +21679,7 @@
         <v>1188</v>
       </c>
       <c r="C520" s="27" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D520" s="25"/>
       <c r="E520" s="25" t="s">
@@ -21704,7 +21704,7 @@
         <v>1188</v>
       </c>
       <c r="C521" s="27" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D521" s="25"/>
       <c r="E521" s="25" t="s">
@@ -21729,7 +21729,7 @@
         <v>1188</v>
       </c>
       <c r="C522" s="27" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D522" s="25"/>
       <c r="E522" s="25" t="s">
@@ -21754,7 +21754,7 @@
         <v>1188</v>
       </c>
       <c r="C523" s="27" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D523" s="25"/>
       <c r="E523" s="25" t="s">
@@ -21779,7 +21779,7 @@
         <v>1188</v>
       </c>
       <c r="C524" s="27" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D524" s="25"/>
       <c r="E524" s="25" t="s">
@@ -21804,7 +21804,7 @@
         <v>1188</v>
       </c>
       <c r="C525" s="27" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D525" s="25"/>
       <c r="E525" s="25" t="s">
@@ -21829,7 +21829,7 @@
         <v>1188</v>
       </c>
       <c r="C526" s="27" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D526" s="25"/>
       <c r="E526" s="25" t="s">
@@ -21854,7 +21854,7 @@
         <v>1188</v>
       </c>
       <c r="C527" s="27" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D527" s="25"/>
       <c r="E527" s="25" t="s">
@@ -21879,7 +21879,7 @@
         <v>1188</v>
       </c>
       <c r="C528" s="27" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D528" s="25"/>
       <c r="E528" s="25" t="s">
@@ -21904,7 +21904,7 @@
         <v>1188</v>
       </c>
       <c r="C529" s="27" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D529" s="25"/>
       <c r="E529" s="25" t="s">
@@ -21929,7 +21929,7 @@
         <v>1188</v>
       </c>
       <c r="C530" s="27" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D530" s="25"/>
       <c r="E530" s="25" t="s">
@@ -21954,7 +21954,7 @@
         <v>1188</v>
       </c>
       <c r="C531" s="27" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D531" s="25"/>
       <c r="E531" s="25" t="s">
@@ -21979,7 +21979,7 @@
         <v>1188</v>
       </c>
       <c r="C532" s="27" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D532" s="25"/>
       <c r="E532" s="25" t="s">
@@ -22004,7 +22004,7 @@
         <v>1188</v>
       </c>
       <c r="C533" s="27" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D533" s="25"/>
       <c r="E533" s="25" t="s">
@@ -22029,7 +22029,7 @@
         <v>1188</v>
       </c>
       <c r="C534" s="27" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D534" s="25"/>
       <c r="E534" s="25" t="s">
@@ -22054,7 +22054,7 @@
         <v>1188</v>
       </c>
       <c r="C535" s="27" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D535" s="25"/>
       <c r="E535" s="25" t="s">
@@ -22079,7 +22079,7 @@
         <v>1188</v>
       </c>
       <c r="C536" s="27" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D536" s="25"/>
       <c r="E536" s="25" t="s">
@@ -22104,7 +22104,7 @@
         <v>1188</v>
       </c>
       <c r="C537" s="27" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D537" s="25"/>
       <c r="E537" s="25" t="s">
@@ -22129,7 +22129,7 @@
         <v>1188</v>
       </c>
       <c r="C538" s="27" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D538" s="25"/>
       <c r="E538" s="25" t="s">
@@ -22154,7 +22154,7 @@
         <v>1188</v>
       </c>
       <c r="C539" s="27" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D539" s="25"/>
       <c r="E539" s="25" t="s">
@@ -22179,7 +22179,7 @@
         <v>1188</v>
       </c>
       <c r="C540" s="27" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D540" s="25"/>
       <c r="E540" s="25" t="s">
@@ -22204,7 +22204,7 @@
         <v>1189</v>
       </c>
       <c r="C541" s="27" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D541" s="25"/>
       <c r="E541" s="25" t="s">
@@ -22229,7 +22229,7 @@
         <v>1189</v>
       </c>
       <c r="C542" s="27" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D542" s="25"/>
       <c r="E542" s="25" t="s">
@@ -22254,7 +22254,7 @@
         <v>1189</v>
       </c>
       <c r="C543" s="27" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D543" s="25"/>
       <c r="E543" s="25" t="s">
@@ -22279,7 +22279,7 @@
         <v>1189</v>
       </c>
       <c r="C544" s="27" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D544" s="25"/>
       <c r="E544" s="25" t="s">
@@ -22304,7 +22304,7 @@
         <v>1189</v>
       </c>
       <c r="C545" s="27" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D545" s="25"/>
       <c r="E545" s="25" t="s">
@@ -22329,7 +22329,7 @@
         <v>1189</v>
       </c>
       <c r="C546" s="27" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D546" s="25"/>
       <c r="E546" s="25" t="s">
@@ -22354,7 +22354,7 @@
         <v>1189</v>
       </c>
       <c r="C547" s="27" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D547" s="25"/>
       <c r="E547" s="25" t="s">
@@ -22379,7 +22379,7 @@
         <v>1189</v>
       </c>
       <c r="C548" s="27" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D548" s="25"/>
       <c r="E548" s="25" t="s">
@@ -22404,7 +22404,7 @@
         <v>1189</v>
       </c>
       <c r="C549" s="27" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D549" s="25"/>
       <c r="E549" s="25" t="s">
@@ -22429,7 +22429,7 @@
         <v>1189</v>
       </c>
       <c r="C550" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D550" s="25"/>
       <c r="E550" s="25" t="s">
@@ -22454,7 +22454,7 @@
         <v>1189</v>
       </c>
       <c r="C551" s="27" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D551" s="25"/>
       <c r="E551" s="25" t="s">
@@ -22479,7 +22479,7 @@
         <v>1189</v>
       </c>
       <c r="C552" s="27" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D552" s="25"/>
       <c r="E552" s="25" t="s">
@@ -22504,7 +22504,7 @@
         <v>1189</v>
       </c>
       <c r="C553" s="27" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D553" s="25"/>
       <c r="E553" s="25" t="s">
@@ -22529,7 +22529,7 @@
         <v>1189</v>
       </c>
       <c r="C554" s="27" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D554" s="25"/>
       <c r="E554" s="25" t="s">
@@ -22554,7 +22554,7 @@
         <v>1189</v>
       </c>
       <c r="C555" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D555" s="25"/>
       <c r="E555" s="25" t="s">
@@ -22579,7 +22579,7 @@
         <v>1189</v>
       </c>
       <c r="C556" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D556" s="25"/>
       <c r="E556" s="25" t="s">
@@ -22604,7 +22604,7 @@
         <v>1190</v>
       </c>
       <c r="C557" s="27" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D557" s="25"/>
       <c r="E557" s="25" t="s">
@@ -22629,7 +22629,7 @@
         <v>1190</v>
       </c>
       <c r="C558" s="27" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D558" s="25"/>
       <c r="E558" s="25" t="s">
@@ -22654,7 +22654,7 @@
         <v>1190</v>
       </c>
       <c r="C559" s="27" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D559" s="25"/>
       <c r="E559" s="25" t="s">
@@ -22679,7 +22679,7 @@
         <v>1190</v>
       </c>
       <c r="C560" s="27" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D560" s="25"/>
       <c r="E560" s="25" t="s">
@@ -22704,7 +22704,7 @@
         <v>1190</v>
       </c>
       <c r="C561" s="27" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D561" s="25"/>
       <c r="E561" s="25" t="s">
@@ -22729,7 +22729,7 @@
         <v>1190</v>
       </c>
       <c r="C562" s="27" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D562" s="25"/>
       <c r="E562" s="25" t="s">
@@ -22754,7 +22754,7 @@
         <v>1190</v>
       </c>
       <c r="C563" s="27" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D563" s="25"/>
       <c r="E563" s="25" t="s">
@@ -22779,7 +22779,7 @@
         <v>1190</v>
       </c>
       <c r="C564" s="27" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D564" s="25"/>
       <c r="E564" s="25" t="s">
@@ -22804,7 +22804,7 @@
         <v>1190</v>
       </c>
       <c r="C565" s="27" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D565" s="25"/>
       <c r="E565" s="25" t="s">
@@ -22829,7 +22829,7 @@
         <v>1190</v>
       </c>
       <c r="C566" s="27" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D566" s="25"/>
       <c r="E566" s="25" t="s">
@@ -22854,7 +22854,7 @@
         <v>1190</v>
       </c>
       <c r="C567" s="27" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D567" s="25"/>
       <c r="E567" s="25" t="s">
@@ -22879,7 +22879,7 @@
         <v>1190</v>
       </c>
       <c r="C568" s="27" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D568" s="25"/>
       <c r="E568" s="25" t="s">
@@ -22904,7 +22904,7 @@
         <v>1190</v>
       </c>
       <c r="C569" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D569" s="25"/>
       <c r="E569" s="25" t="s">
@@ -22929,7 +22929,7 @@
         <v>1190</v>
       </c>
       <c r="C570" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D570" s="25"/>
       <c r="E570" s="25" t="s">
@@ -22954,7 +22954,7 @@
         <v>1190</v>
       </c>
       <c r="C571" s="27" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D571" s="25"/>
       <c r="E571" s="25" t="s">
@@ -22979,7 +22979,7 @@
         <v>1190</v>
       </c>
       <c r="C572" s="27" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D572" s="25"/>
       <c r="E572" s="25" t="s">
@@ -23004,7 +23004,7 @@
         <v>1190</v>
       </c>
       <c r="C573" s="27" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D573" s="25"/>
       <c r="E573" s="25" t="s">
@@ -23029,7 +23029,7 @@
         <v>1190</v>
       </c>
       <c r="C574" s="27" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D574" s="25"/>
       <c r="E574" s="25" t="s">
@@ -23054,7 +23054,7 @@
         <v>1190</v>
       </c>
       <c r="C575" s="27" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D575" s="25"/>
       <c r="E575" s="25" t="s">
@@ -23079,7 +23079,7 @@
         <v>1190</v>
       </c>
       <c r="C576" s="27" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D576" s="25"/>
       <c r="E576" s="25" t="s">
@@ -23104,7 +23104,7 @@
         <v>1190</v>
       </c>
       <c r="C577" s="27" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D577" s="25"/>
       <c r="E577" s="25" t="s">
@@ -23129,7 +23129,7 @@
         <v>1190</v>
       </c>
       <c r="C578" s="27" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D578" s="25"/>
       <c r="E578" s="25" t="s">
@@ -23154,7 +23154,7 @@
         <v>1190</v>
       </c>
       <c r="C579" s="27" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D579" s="25"/>
       <c r="E579" s="25" t="s">
@@ -23179,7 +23179,7 @@
         <v>1190</v>
       </c>
       <c r="C580" s="27" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D580" s="25"/>
       <c r="E580" s="25" t="s">
@@ -23204,7 +23204,7 @@
         <v>1190</v>
       </c>
       <c r="C581" s="27" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D581" s="25"/>
       <c r="E581" s="25" t="s">
@@ -23229,7 +23229,7 @@
         <v>1190</v>
       </c>
       <c r="C582" s="27" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D582" s="25"/>
       <c r="E582" s="25" t="s">
@@ -23254,7 +23254,7 @@
         <v>1190</v>
       </c>
       <c r="C583" s="27" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D583" s="25"/>
       <c r="E583" s="25" t="s">
@@ -23279,7 +23279,7 @@
         <v>1190</v>
       </c>
       <c r="C584" s="27" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D584" s="25"/>
       <c r="E584" s="25" t="s">
@@ -23304,7 +23304,7 @@
         <v>1190</v>
       </c>
       <c r="C585" s="27" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D585" s="25"/>
       <c r="E585" s="25" t="s">
@@ -23329,7 +23329,7 @@
         <v>1190</v>
       </c>
       <c r="C586" s="27" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D586" s="25"/>
       <c r="E586" s="25" t="s">
@@ -23354,7 +23354,7 @@
         <v>1190</v>
       </c>
       <c r="C587" s="27" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D587" s="25"/>
       <c r="E587" s="25" t="s">
@@ -23379,7 +23379,7 @@
         <v>1191</v>
       </c>
       <c r="C588" s="27" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D588" s="25"/>
       <c r="E588" s="25" t="s">
@@ -23404,7 +23404,7 @@
         <v>1191</v>
       </c>
       <c r="C589" s="27" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D589" s="25"/>
       <c r="E589" s="25" t="s">
@@ -23429,7 +23429,7 @@
         <v>1191</v>
       </c>
       <c r="C590" s="27" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D590" s="25"/>
       <c r="E590" s="25" t="s">
@@ -23454,7 +23454,7 @@
         <v>1191</v>
       </c>
       <c r="C591" s="17" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D591" s="25"/>
       <c r="E591" s="25" t="s">
@@ -23479,7 +23479,7 @@
         <v>1191</v>
       </c>
       <c r="C592" s="27" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D592" s="25"/>
       <c r="E592" s="25" t="s">
@@ -23504,7 +23504,7 @@
         <v>1192</v>
       </c>
       <c r="C593" s="27" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D593" s="25"/>
       <c r="E593" s="25" t="s">
@@ -23529,7 +23529,7 @@
         <v>1192</v>
       </c>
       <c r="C594" s="27" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D594" s="25"/>
       <c r="E594" s="25" t="s">
@@ -23554,7 +23554,7 @@
         <v>1192</v>
       </c>
       <c r="C595" s="17" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D595" s="25"/>
       <c r="E595" s="25" t="s">
@@ -23570,7 +23570,7 @@
         <v>17</v>
       </c>
       <c r="I595" s="17" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="596" spans="1:9" ht="30">
@@ -23581,7 +23581,7 @@
         <v>1193</v>
       </c>
       <c r="C596" s="27" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D596" s="25"/>
       <c r="E596" s="25" t="s">
@@ -23606,7 +23606,7 @@
         <v>1193</v>
       </c>
       <c r="C597" s="27" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D597" s="25"/>
       <c r="E597" s="25" t="s">
@@ -23631,7 +23631,7 @@
         <v>1194</v>
       </c>
       <c r="C598" s="27" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D598" s="25"/>
       <c r="E598" s="25" t="s">
@@ -23656,7 +23656,7 @@
         <v>1194</v>
       </c>
       <c r="C599" s="27" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D599" s="25"/>
       <c r="E599" s="25" t="s">
@@ -23681,7 +23681,7 @@
         <v>1194</v>
       </c>
       <c r="C600" s="27" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D600" s="25"/>
       <c r="E600" s="25" t="s">
@@ -23706,7 +23706,7 @@
         <v>1194</v>
       </c>
       <c r="C601" s="27" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D601" s="25"/>
       <c r="E601" s="25" t="s">
@@ -23731,7 +23731,7 @@
         <v>1194</v>
       </c>
       <c r="C602" s="17" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D602" s="25"/>
       <c r="E602" s="25" t="s">
@@ -23747,7 +23747,7 @@
         <v>17</v>
       </c>
       <c r="I602" s="17" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="603" spans="1:9" ht="45">
@@ -23758,7 +23758,7 @@
         <v>1194</v>
       </c>
       <c r="C603" s="27" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D603" s="25"/>
       <c r="E603" s="25" t="s">
@@ -23783,7 +23783,7 @@
         <v>1194</v>
       </c>
       <c r="C604" s="17" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D604" s="25"/>
       <c r="E604" s="25" t="s">
@@ -23799,7 +23799,7 @@
         <v>17</v>
       </c>
       <c r="I604" s="17" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="605" spans="1:9" ht="45">
@@ -23810,7 +23810,7 @@
         <v>1194</v>
       </c>
       <c r="C605" s="27" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D605" s="25"/>
       <c r="E605" s="25" t="s">
@@ -23826,7 +23826,7 @@
         <v>20</v>
       </c>
       <c r="I605" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="606" spans="1:9" ht="30">
@@ -23837,7 +23837,7 @@
         <v>1194</v>
       </c>
       <c r="C606" s="27" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D606" s="25"/>
       <c r="E606" s="25" t="s">
@@ -23856,13 +23856,13 @@
     </row>
     <row r="607" spans="1:9" ht="60">
       <c r="A607" s="18" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B607" s="26" t="s">
         <v>1194</v>
       </c>
       <c r="C607" s="27" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D607" s="25"/>
       <c r="E607" s="25" t="s">
@@ -23887,7 +23887,7 @@
         <v>1194</v>
       </c>
       <c r="C608" s="17" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D608" s="25"/>
       <c r="E608" s="25" t="s">
@@ -23903,7 +23903,7 @@
         <v>17</v>
       </c>
       <c r="I608" s="17" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="609" spans="1:9" ht="45">
@@ -23914,7 +23914,7 @@
         <v>1194</v>
       </c>
       <c r="C609" s="17" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D609" s="25"/>
       <c r="E609" s="25" t="s">
@@ -23939,7 +23939,7 @@
         <v>1194</v>
       </c>
       <c r="C610" s="27" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D610" s="25"/>
       <c r="E610" s="25" t="s">
@@ -23964,7 +23964,7 @@
         <v>1194</v>
       </c>
       <c r="C611" s="27" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D611" s="25"/>
       <c r="E611" s="25" t="s">
@@ -23980,7 +23980,7 @@
         <v>17</v>
       </c>
       <c r="I611" s="17" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="612" spans="1:9" ht="30">
@@ -23991,7 +23991,7 @@
         <v>1194</v>
       </c>
       <c r="C612" s="27" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D612" s="25"/>
       <c r="E612" s="25" t="s">
@@ -24016,7 +24016,7 @@
         <v>1194</v>
       </c>
       <c r="C613" s="27" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D613" s="25"/>
       <c r="E613" s="25" t="s">
@@ -24041,7 +24041,7 @@
         <v>1194</v>
       </c>
       <c r="C614" s="27" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="D614" s="25"/>
       <c r="E614" s="25" t="s">
@@ -24057,7 +24057,7 @@
         <v>17</v>
       </c>
       <c r="I614" s="17" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="615" spans="1:9" ht="75">
@@ -24068,7 +24068,7 @@
         <v>1194</v>
       </c>
       <c r="C615" s="27" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D615" s="25"/>
       <c r="E615" s="25" t="s">
@@ -24093,7 +24093,7 @@
         <v>1194</v>
       </c>
       <c r="C616" s="27" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D616" s="25"/>
       <c r="E616" s="25" t="s">
@@ -24109,7 +24109,7 @@
         <v>17</v>
       </c>
       <c r="I616" s="27" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="617" spans="1:9" ht="45">
@@ -24120,7 +24120,7 @@
         <v>1194</v>
       </c>
       <c r="C617" s="27" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D617" s="25"/>
       <c r="E617" s="25" t="s">
@@ -24145,7 +24145,7 @@
         <v>1194</v>
       </c>
       <c r="C618" s="27" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D618" s="25"/>
       <c r="E618" s="25" t="s">
@@ -24161,7 +24161,7 @@
         <v>17</v>
       </c>
       <c r="I618" s="27" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="619" spans="1:9" ht="45">
@@ -24172,7 +24172,7 @@
         <v>1194</v>
       </c>
       <c r="C619" s="27" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D619" s="25"/>
       <c r="E619" s="25" t="s">
@@ -24197,7 +24197,7 @@
         <v>1194</v>
       </c>
       <c r="C620" s="27" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D620" s="25"/>
       <c r="E620" s="25" t="s">
@@ -24222,7 +24222,7 @@
         <v>1194</v>
       </c>
       <c r="C621" s="27" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D621" s="25"/>
       <c r="E621" s="25" t="s">
@@ -24247,7 +24247,7 @@
         <v>1194</v>
       </c>
       <c r="C622" s="27" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D622" s="25"/>
       <c r="E622" s="25" t="s">
@@ -24272,7 +24272,7 @@
         <v>1194</v>
       </c>
       <c r="C623" s="27" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D623" s="25"/>
       <c r="E623" s="25" t="s">
@@ -24297,7 +24297,7 @@
         <v>1194</v>
       </c>
       <c r="C624" s="27" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D624" s="25"/>
       <c r="E624" s="25" t="s">
@@ -24322,7 +24322,7 @@
         <v>1194</v>
       </c>
       <c r="C625" s="27" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D625" s="25"/>
       <c r="E625" s="25" t="s">
@@ -24347,7 +24347,7 @@
         <v>1194</v>
       </c>
       <c r="C626" s="27" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D626" s="25"/>
       <c r="E626" s="25" t="s">
@@ -24372,7 +24372,7 @@
         <v>1194</v>
       </c>
       <c r="C627" s="27" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D627" s="25"/>
       <c r="E627" s="25" t="s">
@@ -24397,7 +24397,7 @@
         <v>1194</v>
       </c>
       <c r="C628" s="27" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D628" s="25"/>
       <c r="E628" s="25" t="s">
@@ -24422,7 +24422,7 @@
         <v>1194</v>
       </c>
       <c r="C629" s="27" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D629" s="25"/>
       <c r="E629" s="25" t="s">
@@ -24447,7 +24447,7 @@
         <v>1194</v>
       </c>
       <c r="C630" s="27" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D630" s="25"/>
       <c r="E630" s="25" t="s">
@@ -24472,7 +24472,7 @@
         <v>1195</v>
       </c>
       <c r="C631" s="27" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D631" s="25"/>
       <c r="E631" s="25" t="s">
@@ -24488,7 +24488,7 @@
         <v>17</v>
       </c>
       <c r="I631" s="27" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="632" spans="1:9" ht="30">
@@ -24499,7 +24499,7 @@
         <v>1195</v>
       </c>
       <c r="C632" s="27" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D632" s="25"/>
       <c r="E632" s="25" t="s">
@@ -24524,7 +24524,7 @@
         <v>1195</v>
       </c>
       <c r="C633" s="27" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D633" s="25"/>
       <c r="E633" s="25" t="s">
@@ -24549,7 +24549,7 @@
         <v>1195</v>
       </c>
       <c r="C634" s="27" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D634" s="25"/>
       <c r="E634" s="25" t="s">
@@ -24574,7 +24574,7 @@
         <v>1195</v>
       </c>
       <c r="C635" s="27" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D635" s="25"/>
       <c r="E635" s="25" t="s">
@@ -24599,7 +24599,7 @@
         <v>1195</v>
       </c>
       <c r="C636" s="27" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D636" s="25"/>
       <c r="E636" s="25" t="s">
@@ -24624,7 +24624,7 @@
         <v>1195</v>
       </c>
       <c r="C637" s="27" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D637" s="25"/>
       <c r="E637" s="25" t="s">
@@ -24649,7 +24649,7 @@
         <v>1195</v>
       </c>
       <c r="C638" s="27" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D638" s="25"/>
       <c r="E638" s="25" t="s">
@@ -24674,7 +24674,7 @@
         <v>1195</v>
       </c>
       <c r="C639" s="27" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D639" s="25"/>
       <c r="E639" s="25" t="s">
@@ -24699,7 +24699,7 @@
         <v>1195</v>
       </c>
       <c r="C640" s="27" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D640" s="25"/>
       <c r="E640" s="25" t="s">
@@ -24724,7 +24724,7 @@
         <v>1195</v>
       </c>
       <c r="C641" s="27" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D641" s="25"/>
       <c r="E641" s="25" t="s">
@@ -24749,7 +24749,7 @@
         <v>1195</v>
       </c>
       <c r="C642" s="27" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D642" s="25"/>
       <c r="E642" s="25" t="s">
@@ -24774,7 +24774,7 @@
         <v>1195</v>
       </c>
       <c r="C643" s="27" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D643" s="25"/>
       <c r="E643" s="25" t="s">
@@ -24799,7 +24799,7 @@
         <v>1195</v>
       </c>
       <c r="C644" s="27" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D644" s="25"/>
       <c r="E644" s="25" t="s">
@@ -24824,7 +24824,7 @@
         <v>1195</v>
       </c>
       <c r="C645" s="27" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D645" s="25"/>
       <c r="E645" s="25" t="s">
@@ -24840,7 +24840,7 @@
         <v>17</v>
       </c>
       <c r="I645" s="27" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="646" spans="1:9" ht="45">
@@ -24851,7 +24851,7 @@
         <v>1195</v>
       </c>
       <c r="C646" s="27" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D646" s="25"/>
       <c r="E646" s="25" t="s">
@@ -24867,7 +24867,7 @@
         <v>17</v>
       </c>
       <c r="I646" s="27" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="647" spans="1:9" ht="45">
@@ -24878,10 +24878,10 @@
         <v>1195</v>
       </c>
       <c r="C647" s="27" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D647" s="25" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="E647" s="25" t="s">
         <v>19</v>
@@ -24905,7 +24905,7 @@
         <v>1195</v>
       </c>
       <c r="C648" s="27" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D648" s="25"/>
       <c r="E648" s="25" t="s">
@@ -24930,7 +24930,7 @@
         <v>1195</v>
       </c>
       <c r="C649" s="27" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D649" s="25"/>
       <c r="E649" s="25" t="s">
@@ -24955,7 +24955,7 @@
         <v>1195</v>
       </c>
       <c r="C650" s="27" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D650" s="25"/>
       <c r="E650" s="25" t="s">
@@ -24980,7 +24980,7 @@
         <v>1195</v>
       </c>
       <c r="C651" s="27" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D651" s="25"/>
       <c r="E651" s="25" t="s">
@@ -25005,7 +25005,7 @@
         <v>1195</v>
       </c>
       <c r="C652" s="27" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D652" s="25"/>
       <c r="E652" s="25" t="s">
@@ -25030,7 +25030,7 @@
         <v>1195</v>
       </c>
       <c r="C653" s="27" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D653" s="25"/>
       <c r="E653" s="25" t="s">
@@ -25055,7 +25055,7 @@
         <v>1195</v>
       </c>
       <c r="C654" s="27" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D654" s="25"/>
       <c r="E654" s="25" t="s">
@@ -25080,7 +25080,7 @@
         <v>1195</v>
       </c>
       <c r="C655" s="27" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D655" s="25"/>
       <c r="E655" s="25" t="s">
@@ -25105,7 +25105,7 @@
         <v>1196</v>
       </c>
       <c r="C656" s="27" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D656" s="25"/>
       <c r="E656" s="25" t="s">
@@ -25130,7 +25130,7 @@
         <v>1196</v>
       </c>
       <c r="C657" s="27" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D657" s="25"/>
       <c r="E657" s="25" t="s">
@@ -25155,7 +25155,7 @@
         <v>1196</v>
       </c>
       <c r="C658" s="27" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D658" s="25"/>
       <c r="E658" s="25" t="s">
@@ -25180,7 +25180,7 @@
         <v>1196</v>
       </c>
       <c r="C659" s="27" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D659" s="25"/>
       <c r="E659" s="25" t="s">
@@ -25205,7 +25205,7 @@
         <v>1196</v>
       </c>
       <c r="C660" s="27" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D660" s="25"/>
       <c r="E660" s="25" t="s">
@@ -25230,7 +25230,7 @@
         <v>1196</v>
       </c>
       <c r="C661" s="27" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D661" s="25"/>
       <c r="E661" s="25" t="s">
@@ -25255,7 +25255,7 @@
         <v>1196</v>
       </c>
       <c r="C662" s="27" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D662" s="25"/>
       <c r="E662" s="25" t="s">
@@ -25280,7 +25280,7 @@
         <v>1196</v>
       </c>
       <c r="C663" s="27" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D663" s="25"/>
       <c r="E663" s="25" t="s">
@@ -25296,7 +25296,7 @@
         <v>17</v>
       </c>
       <c r="I663" s="27" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="664" spans="1:9" ht="30">
@@ -25307,7 +25307,7 @@
         <v>1196</v>
       </c>
       <c r="C664" s="27" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D664" s="25"/>
       <c r="E664" s="25" t="s">
@@ -25332,7 +25332,7 @@
         <v>1196</v>
       </c>
       <c r="C665" s="27" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D665" s="25"/>
       <c r="E665" s="25" t="s">
@@ -25357,7 +25357,7 @@
         <v>1196</v>
       </c>
       <c r="C666" s="27" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D666" s="25"/>
       <c r="E666" s="25" t="s">
@@ -25382,7 +25382,7 @@
         <v>1196</v>
       </c>
       <c r="C667" s="27" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D667" s="25"/>
       <c r="E667" s="25" t="s">
@@ -25407,7 +25407,7 @@
         <v>1196</v>
       </c>
       <c r="C668" s="27" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D668" s="25"/>
       <c r="E668" s="25" t="s">
@@ -25432,7 +25432,7 @@
         <v>1196</v>
       </c>
       <c r="C669" s="27" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D669" s="25"/>
       <c r="E669" s="25" t="s">
@@ -25457,7 +25457,7 @@
         <v>1196</v>
       </c>
       <c r="C670" s="27" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D670" s="25"/>
       <c r="E670" s="25" t="s">
@@ -25482,7 +25482,7 @@
         <v>1196</v>
       </c>
       <c r="C671" s="27" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D671" s="25"/>
       <c r="E671" s="25" t="s">
@@ -25507,7 +25507,7 @@
         <v>1196</v>
       </c>
       <c r="C672" s="27" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D672" s="25"/>
       <c r="E672" s="25" t="s">
@@ -25532,7 +25532,7 @@
         <v>1196</v>
       </c>
       <c r="C673" s="27" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D673" s="25"/>
       <c r="E673" s="25" t="s">
@@ -25557,7 +25557,7 @@
         <v>1196</v>
       </c>
       <c r="C674" s="27" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D674" s="25"/>
       <c r="E674" s="25" t="s">
@@ -25582,7 +25582,7 @@
         <v>1196</v>
       </c>
       <c r="C675" s="27" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D675" s="25"/>
       <c r="E675" s="25" t="s">
@@ -25607,7 +25607,7 @@
         <v>1196</v>
       </c>
       <c r="C676" s="27" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D676" s="25"/>
       <c r="E676" s="25" t="s">
@@ -25632,7 +25632,7 @@
         <v>1196</v>
       </c>
       <c r="C677" s="27" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D677" s="25"/>
       <c r="E677" s="25" t="s">
@@ -25657,7 +25657,7 @@
         <v>1196</v>
       </c>
       <c r="C678" s="27" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D678" s="25"/>
       <c r="E678" s="25" t="s">
@@ -25682,7 +25682,7 @@
         <v>1196</v>
       </c>
       <c r="C679" s="27" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D679" s="25"/>
       <c r="E679" s="25" t="s">
@@ -25707,7 +25707,7 @@
         <v>1196</v>
       </c>
       <c r="C680" s="27" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D680" s="25"/>
       <c r="E680" s="25" t="s">
@@ -25732,7 +25732,7 @@
         <v>1196</v>
       </c>
       <c r="C681" s="27" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D681" s="25"/>
       <c r="E681" s="25" t="s">
@@ -25757,7 +25757,7 @@
         <v>1197</v>
       </c>
       <c r="C682" s="27" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D682" s="25"/>
       <c r="E682" s="25" t="s">
@@ -25782,7 +25782,7 @@
         <v>1197</v>
       </c>
       <c r="C683" s="27" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D683" s="25"/>
       <c r="E683" s="25" t="s">
@@ -25807,7 +25807,7 @@
         <v>1197</v>
       </c>
       <c r="C684" s="27" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D684" s="25"/>
       <c r="E684" s="25" t="s">
@@ -25832,7 +25832,7 @@
         <v>1197</v>
       </c>
       <c r="C685" s="27" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D685" s="25"/>
       <c r="E685" s="25" t="s">
@@ -25857,7 +25857,7 @@
         <v>1197</v>
       </c>
       <c r="C686" s="27" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D686" s="25"/>
       <c r="E686" s="25" t="s">
@@ -25882,7 +25882,7 @@
         <v>1197</v>
       </c>
       <c r="C687" s="27" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D687" s="25"/>
       <c r="E687" s="25" t="s">
@@ -25907,7 +25907,7 @@
         <v>1197</v>
       </c>
       <c r="C688" s="27" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D688" s="25"/>
       <c r="E688" s="25" t="s">
@@ -25932,7 +25932,7 @@
         <v>1197</v>
       </c>
       <c r="C689" s="27" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D689" s="25"/>
       <c r="E689" s="25" t="s">
@@ -25957,7 +25957,7 @@
         <v>1197</v>
       </c>
       <c r="C690" s="27" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D690" s="25"/>
       <c r="E690" s="25" t="s">
@@ -25982,7 +25982,7 @@
         <v>1197</v>
       </c>
       <c r="C691" s="27" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D691" s="25"/>
       <c r="E691" s="25" t="s">
@@ -26007,7 +26007,7 @@
         <v>1197</v>
       </c>
       <c r="C692" s="27" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D692" s="25"/>
       <c r="E692" s="25" t="s">
@@ -26032,7 +26032,7 @@
         <v>1197</v>
       </c>
       <c r="C693" s="27" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D693" s="25"/>
       <c r="E693" s="25" t="s">
@@ -26057,7 +26057,7 @@
         <v>1197</v>
       </c>
       <c r="C694" s="27" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D694" s="25"/>
       <c r="E694" s="25" t="s">
@@ -26082,7 +26082,7 @@
         <v>1197</v>
       </c>
       <c r="C695" s="27" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D695" s="25"/>
       <c r="E695" s="25" t="s">
@@ -26107,7 +26107,7 @@
         <v>1197</v>
       </c>
       <c r="C696" s="27" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D696" s="25"/>
       <c r="E696" s="25" t="s">
@@ -26132,7 +26132,7 @@
         <v>1197</v>
       </c>
       <c r="C697" s="27" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D697" s="25"/>
       <c r="E697" s="25" t="s">
@@ -26157,7 +26157,7 @@
         <v>1197</v>
       </c>
       <c r="C698" s="27" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D698" s="25"/>
       <c r="E698" s="25" t="s">
@@ -26182,7 +26182,7 @@
         <v>1197</v>
       </c>
       <c r="C699" s="27" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D699" s="25"/>
       <c r="E699" s="25" t="s">
@@ -26207,7 +26207,7 @@
         <v>1197</v>
       </c>
       <c r="C700" s="27" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D700" s="25"/>
       <c r="E700" s="25" t="s">
@@ -26232,7 +26232,7 @@
         <v>1197</v>
       </c>
       <c r="C701" s="27" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D701" s="25"/>
       <c r="E701" s="25" t="s">
@@ -26257,7 +26257,7 @@
         <v>1197</v>
       </c>
       <c r="C702" s="27" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D702" s="25"/>
       <c r="E702" s="25" t="s">
@@ -26282,7 +26282,7 @@
         <v>1197</v>
       </c>
       <c r="C703" s="27" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D703" s="25"/>
       <c r="E703" s="25" t="s">
@@ -26307,7 +26307,7 @@
         <v>1197</v>
       </c>
       <c r="C704" s="27" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D704" s="25"/>
       <c r="E704" s="25" t="s">
@@ -26332,7 +26332,7 @@
         <v>1197</v>
       </c>
       <c r="C705" s="27" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D705" s="25"/>
       <c r="E705" s="25" t="s">
@@ -26357,7 +26357,7 @@
         <v>1197</v>
       </c>
       <c r="C706" s="27" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D706" s="25"/>
       <c r="E706" s="25" t="s">
@@ -26382,7 +26382,7 @@
         <v>1197</v>
       </c>
       <c r="C707" s="27" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D707" s="25"/>
       <c r="E707" s="25" t="s">
@@ -26407,7 +26407,7 @@
         <v>1197</v>
       </c>
       <c r="C708" s="27" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D708" s="25"/>
       <c r="E708" s="25" t="s">
@@ -26432,7 +26432,7 @@
         <v>1197</v>
       </c>
       <c r="C709" s="27" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D709" s="25"/>
       <c r="E709" s="25" t="s">
@@ -26457,7 +26457,7 @@
         <v>1198</v>
       </c>
       <c r="C710" s="27" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D710" s="25"/>
       <c r="E710" s="25" t="s">
@@ -26482,7 +26482,7 @@
         <v>1198</v>
       </c>
       <c r="C711" s="27" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D711" s="25"/>
       <c r="E711" s="25" t="s">
@@ -26507,7 +26507,7 @@
         <v>1198</v>
       </c>
       <c r="C712" s="27" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D712" s="25"/>
       <c r="E712" s="25" t="s">
@@ -26532,7 +26532,7 @@
         <v>1198</v>
       </c>
       <c r="C713" s="27" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D713" s="25"/>
       <c r="E713" s="25" t="s">
@@ -26557,7 +26557,7 @@
         <v>1198</v>
       </c>
       <c r="C714" s="27" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D714" s="25"/>
       <c r="E714" s="25" t="s">
@@ -26582,7 +26582,7 @@
         <v>1198</v>
       </c>
       <c r="C715" s="27" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D715" s="25"/>
       <c r="E715" s="25" t="s">
@@ -26607,7 +26607,7 @@
         <v>1198</v>
       </c>
       <c r="C716" s="27" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D716" s="25"/>
       <c r="E716" s="25" t="s">
@@ -26632,7 +26632,7 @@
         <v>1198</v>
       </c>
       <c r="C717" s="27" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D717" s="25"/>
       <c r="E717" s="25" t="s">
@@ -26657,7 +26657,7 @@
         <v>1198</v>
       </c>
       <c r="C718" s="27" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D718" s="25"/>
       <c r="E718" s="25" t="s">
@@ -26682,7 +26682,7 @@
         <v>1198</v>
       </c>
       <c r="C719" s="27" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D719" s="25"/>
       <c r="E719" s="25" t="s">
@@ -26707,7 +26707,7 @@
         <v>1198</v>
       </c>
       <c r="C720" s="27" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D720" s="25"/>
       <c r="E720" s="25" t="s">
@@ -26732,7 +26732,7 @@
         <v>1198</v>
       </c>
       <c r="C721" s="27" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D721" s="25"/>
       <c r="E721" s="25" t="s">
@@ -26757,7 +26757,7 @@
         <v>1198</v>
       </c>
       <c r="C722" s="27" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D722" s="25"/>
       <c r="E722" s="25" t="s">
@@ -26782,7 +26782,7 @@
         <v>1198</v>
       </c>
       <c r="C723" s="27" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D723" s="25"/>
       <c r="E723" s="25" t="s">
@@ -26807,7 +26807,7 @@
         <v>1198</v>
       </c>
       <c r="C724" s="27" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D724" s="25"/>
       <c r="E724" s="25" t="s">
@@ -26832,7 +26832,7 @@
         <v>1198</v>
       </c>
       <c r="C725" s="27" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D725" s="25"/>
       <c r="E725" s="25" t="s">
@@ -26857,7 +26857,7 @@
         <v>1198</v>
       </c>
       <c r="C726" s="27" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D726" s="25"/>
       <c r="E726" s="25" t="s">
@@ -26882,7 +26882,7 @@
         <v>1198</v>
       </c>
       <c r="C727" s="17" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="D727" s="25"/>
       <c r="E727" s="25" t="s">
@@ -26907,7 +26907,7 @@
         <v>1198</v>
       </c>
       <c r="C728" s="27" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D728" s="25"/>
       <c r="E728" s="25" t="s">
@@ -26932,7 +26932,7 @@
         <v>1198</v>
       </c>
       <c r="C729" s="17" t="s">
-        <v>2400</v>
+        <v>2408</v>
       </c>
       <c r="D729" s="25"/>
       <c r="E729" s="25" t="s">
@@ -26957,7 +26957,7 @@
         <v>1198</v>
       </c>
       <c r="C730" s="17" t="s">
-        <v>2399</v>
+        <v>2409</v>
       </c>
       <c r="D730" s="25"/>
       <c r="E730" s="25" t="s">
@@ -26982,7 +26982,7 @@
         <v>1198</v>
       </c>
       <c r="C731" s="27" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D731" s="25"/>
       <c r="E731" s="25" t="s">
@@ -27007,7 +27007,7 @@
         <v>1198</v>
       </c>
       <c r="C732" s="27" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D732" s="25"/>
       <c r="E732" s="25" t="s">
@@ -27032,7 +27032,7 @@
         <v>1198</v>
       </c>
       <c r="C733" s="27" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D733" s="25"/>
       <c r="E733" s="25" t="s">
@@ -27057,7 +27057,7 @@
         <v>1198</v>
       </c>
       <c r="C734" s="27" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D734" s="25"/>
       <c r="E734" s="25" t="s">
@@ -27082,7 +27082,7 @@
         <v>1198</v>
       </c>
       <c r="C735" s="27" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D735" s="25"/>
       <c r="E735" s="25" t="s">
@@ -27107,7 +27107,7 @@
         <v>1198</v>
       </c>
       <c r="C736" s="27" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D736" s="25"/>
       <c r="E736" s="25" t="s">
@@ -27132,7 +27132,7 @@
         <v>1198</v>
       </c>
       <c r="C737" s="27" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D737" s="25"/>
       <c r="E737" s="25" t="s">
@@ -27157,7 +27157,7 @@
         <v>1198</v>
       </c>
       <c r="C738" s="27" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D738" s="25"/>
       <c r="E738" s="25" t="s">
@@ -27182,7 +27182,7 @@
         <v>1198</v>
       </c>
       <c r="C739" s="27" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D739" s="25"/>
       <c r="E739" s="25" t="s">
@@ -27207,7 +27207,7 @@
         <v>1198</v>
       </c>
       <c r="C740" s="27" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D740" s="25"/>
       <c r="E740" s="25" t="s">
@@ -27232,7 +27232,7 @@
         <v>1198</v>
       </c>
       <c r="C741" s="27" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D741" s="25"/>
       <c r="E741" s="25" t="s">
@@ -27257,7 +27257,7 @@
         <v>1199</v>
       </c>
       <c r="C742" s="27" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D742" s="25"/>
       <c r="E742" s="25" t="s">
@@ -27282,7 +27282,7 @@
         <v>1199</v>
       </c>
       <c r="C743" s="27" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D743" s="25"/>
       <c r="E743" s="25" t="s">
@@ -27307,7 +27307,7 @@
         <v>1199</v>
       </c>
       <c r="C744" s="27" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D744" s="25"/>
       <c r="E744" s="25" t="s">
@@ -27332,7 +27332,7 @@
         <v>1199</v>
       </c>
       <c r="C745" s="27" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D745" s="25"/>
       <c r="E745" s="25" t="s">
@@ -27357,7 +27357,7 @@
         <v>1199</v>
       </c>
       <c r="C746" s="27" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D746" s="25"/>
       <c r="E746" s="25" t="s">
@@ -27382,7 +27382,7 @@
         <v>1199</v>
       </c>
       <c r="C747" s="27" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D747" s="25"/>
       <c r="E747" s="25" t="s">
@@ -27407,7 +27407,7 @@
         <v>1199</v>
       </c>
       <c r="C748" s="27" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D748" s="25"/>
       <c r="E748" s="25" t="s">
@@ -27432,7 +27432,7 @@
         <v>1199</v>
       </c>
       <c r="C749" s="27" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D749" s="25"/>
       <c r="E749" s="25" t="s">
@@ -27457,7 +27457,7 @@
         <v>1199</v>
       </c>
       <c r="C750" s="27" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D750" s="25"/>
       <c r="E750" s="25" t="s">
@@ -27482,7 +27482,7 @@
         <v>1199</v>
       </c>
       <c r="C751" s="27" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D751" s="25"/>
       <c r="E751" s="25" t="s">
@@ -27507,7 +27507,7 @@
         <v>1199</v>
       </c>
       <c r="C752" s="27" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D752" s="25"/>
       <c r="E752" s="25" t="s">
@@ -27532,7 +27532,7 @@
         <v>1199</v>
       </c>
       <c r="C753" s="27" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D753" s="25"/>
       <c r="E753" s="25" t="s">
@@ -27557,7 +27557,7 @@
         <v>1199</v>
       </c>
       <c r="C754" s="27" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D754" s="25"/>
       <c r="E754" s="25" t="s">
@@ -27582,7 +27582,7 @@
         <v>1199</v>
       </c>
       <c r="C755" s="27" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D755" s="25"/>
       <c r="E755" s="25" t="s">
@@ -27607,7 +27607,7 @@
         <v>1199</v>
       </c>
       <c r="C756" s="27" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D756" s="25"/>
       <c r="E756" s="25" t="s">
@@ -27632,7 +27632,7 @@
         <v>1199</v>
       </c>
       <c r="C757" s="27" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D757" s="25"/>
       <c r="E757" s="25" t="s">
@@ -27657,7 +27657,7 @@
         <v>1199</v>
       </c>
       <c r="C758" s="27" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D758" s="25"/>
       <c r="E758" s="25" t="s">
@@ -27682,7 +27682,7 @@
         <v>1200</v>
       </c>
       <c r="C759" s="27" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D759" s="25"/>
       <c r="E759" s="25" t="s">
@@ -27698,7 +27698,7 @@
         <v>17</v>
       </c>
       <c r="I759" s="27" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="760" spans="1:9" ht="45">
@@ -27709,7 +27709,7 @@
         <v>1200</v>
       </c>
       <c r="C760" s="27" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D760" s="25"/>
       <c r="E760" s="25" t="s">
@@ -27725,7 +27725,7 @@
         <v>17</v>
       </c>
       <c r="I760" s="27" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="761" spans="1:9" ht="45">
@@ -27736,7 +27736,7 @@
         <v>1200</v>
       </c>
       <c r="C761" s="27" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D761" s="25"/>
       <c r="E761" s="25" t="s">
@@ -27752,7 +27752,7 @@
         <v>17</v>
       </c>
       <c r="I761" s="27" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="762" spans="1:9" ht="45">
@@ -27763,7 +27763,7 @@
         <v>1200</v>
       </c>
       <c r="C762" s="27" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D762" s="25"/>
       <c r="E762" s="25" t="s">
@@ -27788,7 +27788,7 @@
         <v>1200</v>
       </c>
       <c r="C763" s="27" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D763" s="25"/>
       <c r="E763" s="25" t="s">
@@ -27813,7 +27813,7 @@
         <v>1200</v>
       </c>
       <c r="C764" s="17" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D764" s="25"/>
       <c r="E764" s="25" t="s">
@@ -27838,7 +27838,7 @@
         <v>1200</v>
       </c>
       <c r="C765" s="27" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D765" s="25"/>
       <c r="E765" s="25" t="s">
@@ -27863,7 +27863,7 @@
         <v>1200</v>
       </c>
       <c r="C766" s="27" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D766" s="25"/>
       <c r="E766" s="25" t="s">
@@ -27888,7 +27888,7 @@
         <v>1200</v>
       </c>
       <c r="C767" s="27" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D767" s="25"/>
       <c r="E767" s="25" t="s">
@@ -27913,7 +27913,7 @@
         <v>1200</v>
       </c>
       <c r="C768" s="27" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D768" s="25"/>
       <c r="E768" s="25" t="s">
@@ -27938,7 +27938,7 @@
         <v>1200</v>
       </c>
       <c r="C769" s="27" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D769" s="25"/>
       <c r="E769" s="25" t="s">
@@ -27963,7 +27963,7 @@
         <v>1200</v>
       </c>
       <c r="C770" s="27" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D770" s="25"/>
       <c r="E770" s="25" t="s">
@@ -27988,7 +27988,7 @@
         <v>1200</v>
       </c>
       <c r="C771" s="27" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D771" s="25"/>
       <c r="E771" s="25" t="s">
@@ -28013,7 +28013,7 @@
         <v>1200</v>
       </c>
       <c r="C772" s="27" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D772" s="25"/>
       <c r="E772" s="25" t="s">
@@ -28038,7 +28038,7 @@
         <v>1200</v>
       </c>
       <c r="C773" s="27" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D773" s="25"/>
       <c r="E773" s="25" t="s">
@@ -28063,7 +28063,7 @@
         <v>1200</v>
       </c>
       <c r="C774" s="27" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D774" s="25"/>
       <c r="E774" s="25" t="s">
@@ -28088,7 +28088,7 @@
         <v>1201</v>
       </c>
       <c r="C775" s="27" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D775" s="25"/>
       <c r="E775" s="25" t="s">
@@ -28113,7 +28113,7 @@
         <v>1201</v>
       </c>
       <c r="C776" s="27" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D776" s="25"/>
       <c r="E776" s="25" t="s">
@@ -28138,7 +28138,7 @@
         <v>1201</v>
       </c>
       <c r="C777" s="27" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D777" s="25"/>
       <c r="E777" s="25" t="s">
@@ -28163,7 +28163,7 @@
         <v>1201</v>
       </c>
       <c r="C778" s="27" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D778" s="25"/>
       <c r="E778" s="25" t="s">
@@ -28188,7 +28188,7 @@
         <v>1201</v>
       </c>
       <c r="C779" s="27" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D779" s="25"/>
       <c r="E779" s="25" t="s">
@@ -28213,7 +28213,7 @@
         <v>1201</v>
       </c>
       <c r="C780" s="27" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D780" s="25"/>
       <c r="E780" s="25" t="s">
@@ -28238,7 +28238,7 @@
         <v>1201</v>
       </c>
       <c r="C781" s="27" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D781" s="25"/>
       <c r="E781" s="25" t="s">
@@ -28263,7 +28263,7 @@
         <v>1201</v>
       </c>
       <c r="C782" s="27" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D782" s="25"/>
       <c r="E782" s="25" t="s">
@@ -28288,7 +28288,7 @@
         <v>1201</v>
       </c>
       <c r="C783" s="27" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D783" s="25"/>
       <c r="E783" s="25" t="s">
@@ -28313,7 +28313,7 @@
         <v>1201</v>
       </c>
       <c r="C784" s="27" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D784" s="25"/>
       <c r="E784" s="25" t="s">
@@ -28338,7 +28338,7 @@
         <v>1201</v>
       </c>
       <c r="C785" s="27" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D785" s="25"/>
       <c r="E785" s="25" t="s">
@@ -28363,7 +28363,7 @@
         <v>1201</v>
       </c>
       <c r="C786" s="27" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D786" s="25"/>
       <c r="E786" s="25" t="s">
@@ -28388,7 +28388,7 @@
         <v>1201</v>
       </c>
       <c r="C787" s="27" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="D787" s="25"/>
       <c r="E787" s="25" t="s">
@@ -28413,7 +28413,7 @@
         <v>1201</v>
       </c>
       <c r="C788" s="27" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D788" s="25"/>
       <c r="E788" s="25" t="s">
@@ -28438,7 +28438,7 @@
         <v>1201</v>
       </c>
       <c r="C789" s="27" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D789" s="25"/>
       <c r="E789" s="25" t="s">
@@ -28463,7 +28463,7 @@
         <v>1201</v>
       </c>
       <c r="C790" s="27" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D790" s="25"/>
       <c r="E790" s="25" t="s">
@@ -28488,7 +28488,7 @@
         <v>1201</v>
       </c>
       <c r="C791" s="27" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D791" s="25"/>
       <c r="E791" s="25" t="s">
@@ -28513,7 +28513,7 @@
         <v>1201</v>
       </c>
       <c r="C792" s="27" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D792" s="25"/>
       <c r="E792" s="25" t="s">
@@ -28538,7 +28538,7 @@
         <v>1201</v>
       </c>
       <c r="C793" s="27" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D793" s="25"/>
       <c r="E793" s="25" t="s">
@@ -28563,7 +28563,7 @@
         <v>1201</v>
       </c>
       <c r="C794" s="27" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D794" s="25"/>
       <c r="E794" s="25" t="s">
@@ -28588,7 +28588,7 @@
         <v>1201</v>
       </c>
       <c r="C795" s="27" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D795" s="25"/>
       <c r="E795" s="25" t="s">
@@ -28613,7 +28613,7 @@
         <v>1201</v>
       </c>
       <c r="C796" s="27" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D796" s="25"/>
       <c r="E796" s="25" t="s">
@@ -28638,7 +28638,7 @@
         <v>1201</v>
       </c>
       <c r="C797" s="27" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D797" s="25"/>
       <c r="E797" s="25" t="s">
@@ -28663,7 +28663,7 @@
         <v>1201</v>
       </c>
       <c r="C798" s="27" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D798" s="25"/>
       <c r="E798" s="25" t="s">
@@ -28688,7 +28688,7 @@
         <v>1201</v>
       </c>
       <c r="C799" s="27" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D799" s="25"/>
       <c r="E799" s="25" t="s">
@@ -28713,7 +28713,7 @@
         <v>1201</v>
       </c>
       <c r="C800" s="27" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D800" s="25"/>
       <c r="E800" s="25" t="s">
@@ -28738,7 +28738,7 @@
         <v>1201</v>
       </c>
       <c r="C801" s="27" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D801" s="25"/>
       <c r="E801" s="25" t="s">
@@ -28763,7 +28763,7 @@
         <v>1201</v>
       </c>
       <c r="C802" s="27" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D802" s="25"/>
       <c r="E802" s="25" t="s">
@@ -28788,7 +28788,7 @@
         <v>1201</v>
       </c>
       <c r="C803" s="27" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D803" s="25"/>
       <c r="E803" s="25" t="s">
@@ -28813,7 +28813,7 @@
         <v>1201</v>
       </c>
       <c r="C804" s="27" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D804" s="25"/>
       <c r="E804" s="25" t="s">
@@ -28838,7 +28838,7 @@
         <v>1201</v>
       </c>
       <c r="C805" s="27" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D805" s="25"/>
       <c r="E805" s="25" t="s">
@@ -28863,7 +28863,7 @@
         <v>1201</v>
       </c>
       <c r="C806" s="27" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D806" s="25"/>
       <c r="E806" s="25" t="s">
@@ -28888,7 +28888,7 @@
         <v>1201</v>
       </c>
       <c r="C807" s="27" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D807" s="25"/>
       <c r="E807" s="25" t="s">
@@ -28913,7 +28913,7 @@
         <v>1201</v>
       </c>
       <c r="C808" s="27" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D808" s="25"/>
       <c r="E808" s="25" t="s">
@@ -28938,7 +28938,7 @@
         <v>1201</v>
       </c>
       <c r="C809" s="27" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D809" s="25"/>
       <c r="E809" s="25" t="s">
@@ -28963,7 +28963,7 @@
         <v>1202</v>
       </c>
       <c r="C810" s="27" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D810" s="25"/>
       <c r="E810" s="25" t="s">
@@ -28988,7 +28988,7 @@
         <v>1202</v>
       </c>
       <c r="C811" s="27" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D811" s="25"/>
       <c r="E811" s="25" t="s">
@@ -29013,7 +29013,7 @@
         <v>1202</v>
       </c>
       <c r="C812" s="27" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D812" s="25"/>
       <c r="E812" s="25" t="s">
@@ -29038,7 +29038,7 @@
         <v>1202</v>
       </c>
       <c r="C813" s="27" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D813" s="25"/>
       <c r="E813" s="25" t="s">
@@ -29063,7 +29063,7 @@
         <v>1202</v>
       </c>
       <c r="C814" s="27" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D814" s="25"/>
       <c r="E814" s="25" t="s">
@@ -29088,7 +29088,7 @@
         <v>1202</v>
       </c>
       <c r="C815" s="27" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D815" s="25"/>
       <c r="E815" s="25" t="s">
@@ -29113,7 +29113,7 @@
         <v>1202</v>
       </c>
       <c r="C816" s="27" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D816" s="25"/>
       <c r="E816" s="25" t="s">
@@ -29138,7 +29138,7 @@
         <v>1202</v>
       </c>
       <c r="C817" s="27" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D817" s="25"/>
       <c r="E817" s="25" t="s">
@@ -29163,7 +29163,7 @@
         <v>1202</v>
       </c>
       <c r="C818" s="27" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D818" s="25"/>
       <c r="E818" s="25" t="s">
@@ -29188,7 +29188,7 @@
         <v>1202</v>
       </c>
       <c r="C819" s="27" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D819" s="25"/>
       <c r="E819" s="25" t="s">
@@ -29213,7 +29213,7 @@
         <v>1202</v>
       </c>
       <c r="C820" s="27" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D820" s="25"/>
       <c r="E820" s="25" t="s">
@@ -29238,7 +29238,7 @@
         <v>1202</v>
       </c>
       <c r="C821" s="27" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D821" s="25"/>
       <c r="E821" s="25" t="s">
@@ -29263,7 +29263,7 @@
         <v>1202</v>
       </c>
       <c r="C822" s="27" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D822" s="25"/>
       <c r="E822" s="25" t="s">
@@ -29288,7 +29288,7 @@
         <v>1202</v>
       </c>
       <c r="C823" s="27" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D823" s="25"/>
       <c r="E823" s="25" t="s">
@@ -29313,7 +29313,7 @@
         <v>1202</v>
       </c>
       <c r="C824" s="27" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D824" s="25"/>
       <c r="E824" s="25" t="s">
@@ -29338,7 +29338,7 @@
         <v>1202</v>
       </c>
       <c r="C825" s="27" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D825" s="25"/>
       <c r="E825" s="25" t="s">
@@ -29363,7 +29363,7 @@
         <v>1202</v>
       </c>
       <c r="C826" s="27" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D826" s="25"/>
       <c r="E826" s="25" t="s">
@@ -29388,7 +29388,7 @@
         <v>1202</v>
       </c>
       <c r="C827" s="27" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D827" s="25"/>
       <c r="E827" s="25" t="s">
@@ -29413,7 +29413,7 @@
         <v>1202</v>
       </c>
       <c r="C828" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D828" s="25"/>
       <c r="E828" s="25" t="s">
@@ -29438,7 +29438,7 @@
         <v>1202</v>
       </c>
       <c r="C829" s="27" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D829" s="25"/>
       <c r="E829" s="25" t="s">
@@ -29463,7 +29463,7 @@
         <v>1202</v>
       </c>
       <c r="C830" s="27" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D830" s="25"/>
       <c r="E830" s="25" t="s">
@@ -29488,7 +29488,7 @@
         <v>1202</v>
       </c>
       <c r="C831" s="27" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D831" s="25"/>
       <c r="E831" s="25" t="s">
@@ -29513,7 +29513,7 @@
         <v>1202</v>
       </c>
       <c r="C832" s="27" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D832" s="25"/>
       <c r="E832" s="25" t="s">
@@ -29538,7 +29538,7 @@
         <v>1202</v>
       </c>
       <c r="C833" s="27" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D833" s="25"/>
       <c r="E833" s="25" t="s">
@@ -29563,7 +29563,7 @@
         <v>1202</v>
       </c>
       <c r="C834" s="27" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D834" s="25"/>
       <c r="E834" s="25" t="s">
@@ -29588,7 +29588,7 @@
         <v>1202</v>
       </c>
       <c r="C835" s="27" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D835" s="25"/>
       <c r="E835" s="25" t="s">
@@ -29613,7 +29613,7 @@
         <v>1202</v>
       </c>
       <c r="C836" s="27" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D836" s="25"/>
       <c r="E836" s="25" t="s">
@@ -29638,7 +29638,7 @@
         <v>1202</v>
       </c>
       <c r="C837" s="27" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D837" s="25"/>
       <c r="E837" s="25" t="s">
@@ -29663,7 +29663,7 @@
         <v>1202</v>
       </c>
       <c r="C838" s="27" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D838" s="25"/>
       <c r="E838" s="25" t="s">
@@ -29688,7 +29688,7 @@
         <v>1202</v>
       </c>
       <c r="C839" s="27" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D839" s="25"/>
       <c r="E839" s="25" t="s">
@@ -29713,7 +29713,7 @@
         <v>1202</v>
       </c>
       <c r="C840" s="27" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D840" s="25"/>
       <c r="E840" s="25" t="s">
@@ -29729,7 +29729,7 @@
         <v>17</v>
       </c>
       <c r="I840" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="841" spans="1:9" ht="30">
@@ -29740,7 +29740,7 @@
         <v>1202</v>
       </c>
       <c r="C841" s="27" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D841" s="25"/>
       <c r="E841" s="25" t="s">
@@ -29765,7 +29765,7 @@
         <v>1202</v>
       </c>
       <c r="C842" s="27" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D842" s="25"/>
       <c r="E842" s="25" t="s">
@@ -29781,7 +29781,7 @@
         <v>17</v>
       </c>
       <c r="I842" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="843" spans="1:9" ht="30">
@@ -29792,7 +29792,7 @@
         <v>1202</v>
       </c>
       <c r="C843" s="27" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D843" s="25"/>
       <c r="E843" s="25" t="s">
@@ -29817,7 +29817,7 @@
         <v>1202</v>
       </c>
       <c r="C844" s="27" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D844" s="25"/>
       <c r="E844" s="25" t="s">
@@ -29842,7 +29842,7 @@
         <v>1202</v>
       </c>
       <c r="C845" s="27" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D845" s="25"/>
       <c r="E845" s="25" t="s">
@@ -29867,7 +29867,7 @@
         <v>1202</v>
       </c>
       <c r="C846" s="27" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D846" s="25"/>
       <c r="E846" s="25" t="s">
@@ -29892,7 +29892,7 @@
         <v>1202</v>
       </c>
       <c r="C847" s="27" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D847" s="25"/>
       <c r="E847" s="25" t="s">
@@ -29917,7 +29917,7 @@
         <v>1202</v>
       </c>
       <c r="C848" s="27" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D848" s="25"/>
       <c r="E848" s="25" t="s">
@@ -29942,7 +29942,7 @@
         <v>1202</v>
       </c>
       <c r="C849" s="27" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D849" s="25"/>
       <c r="E849" s="25" t="s">
@@ -29967,7 +29967,7 @@
         <v>1202</v>
       </c>
       <c r="C850" s="27" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D850" s="25"/>
       <c r="E850" s="25" t="s">
@@ -29992,7 +29992,7 @@
         <v>1202</v>
       </c>
       <c r="C851" s="27" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D851" s="25"/>
       <c r="E851" s="25" t="s">
@@ -30017,7 +30017,7 @@
         <v>1203</v>
       </c>
       <c r="C852" s="27" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D852" s="25"/>
       <c r="E852" s="25" t="s">
@@ -30042,7 +30042,7 @@
         <v>1203</v>
       </c>
       <c r="C853" s="27" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D853" s="25"/>
       <c r="E853" s="25" t="s">
@@ -30067,7 +30067,7 @@
         <v>1203</v>
       </c>
       <c r="C854" s="27" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D854" s="25"/>
       <c r="E854" s="25" t="s">
@@ -30083,7 +30083,7 @@
         <v>17</v>
       </c>
       <c r="I854" s="27" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="855" spans="1:9" ht="30">
@@ -30094,7 +30094,7 @@
         <v>1203</v>
       </c>
       <c r="C855" s="27" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D855" s="25"/>
       <c r="E855" s="25" t="s">
@@ -30119,7 +30119,7 @@
         <v>1203</v>
       </c>
       <c r="C856" s="27" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D856" s="25"/>
       <c r="E856" s="25" t="s">
@@ -30144,7 +30144,7 @@
         <v>1203</v>
       </c>
       <c r="C857" s="27" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D857" s="25"/>
       <c r="E857" s="25" t="s">
@@ -30169,7 +30169,7 @@
         <v>1203</v>
       </c>
       <c r="C858" s="27" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D858" s="25"/>
       <c r="E858" s="25" t="s">
@@ -30194,7 +30194,7 @@
         <v>1203</v>
       </c>
       <c r="C859" s="27" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D859" s="25"/>
       <c r="E859" s="25" t="s">
@@ -30219,7 +30219,7 @@
         <v>1203</v>
       </c>
       <c r="C860" s="27" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D860" s="25"/>
       <c r="E860" s="25" t="s">
@@ -30244,7 +30244,7 @@
         <v>1203</v>
       </c>
       <c r="C861" s="27" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D861" s="25"/>
       <c r="E861" s="25" t="s">
@@ -30269,7 +30269,7 @@
         <v>1203</v>
       </c>
       <c r="C862" s="27" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D862" s="25"/>
       <c r="E862" s="25" t="s">
@@ -30294,7 +30294,7 @@
         <v>1203</v>
       </c>
       <c r="C863" s="27" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D863" s="25"/>
       <c r="E863" s="25" t="s">
@@ -30319,7 +30319,7 @@
         <v>1203</v>
       </c>
       <c r="C864" s="27" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D864" s="25"/>
       <c r="E864" s="25" t="s">
@@ -30344,7 +30344,7 @@
         <v>1203</v>
       </c>
       <c r="C865" s="27" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D865" s="25"/>
       <c r="E865" s="25" t="s">
@@ -30369,7 +30369,7 @@
         <v>1203</v>
       </c>
       <c r="C866" s="17" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D866" s="25"/>
       <c r="E866" s="25" t="s">
@@ -30394,7 +30394,7 @@
         <v>1204</v>
       </c>
       <c r="C867" s="17" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D867" s="25"/>
       <c r="E867" s="25" t="s">
@@ -30413,13 +30413,13 @@
     </row>
     <row r="868" spans="1:9" ht="60">
       <c r="A868" s="25" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B868" s="26" t="s">
         <v>1204</v>
       </c>
       <c r="C868" s="27" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D868" s="25"/>
       <c r="E868" s="25" t="s">
@@ -30435,7 +30435,7 @@
         <v>17</v>
       </c>
       <c r="I868" s="17" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="869" spans="1:9" ht="45">
@@ -30446,7 +30446,7 @@
         <v>1204</v>
       </c>
       <c r="C869" s="27" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D869" s="25"/>
       <c r="E869" s="25" t="s">
@@ -30471,7 +30471,7 @@
         <v>1204</v>
       </c>
       <c r="C870" s="27" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D870" s="25"/>
       <c r="E870" s="25" t="s">
@@ -30496,7 +30496,7 @@
         <v>1204</v>
       </c>
       <c r="C871" s="27" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D871" s="25"/>
       <c r="E871" s="25" t="s">
@@ -30521,7 +30521,7 @@
         <v>1204</v>
       </c>
       <c r="C872" s="27" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D872" s="25"/>
       <c r="E872" s="25" t="s">
@@ -30546,7 +30546,7 @@
         <v>1204</v>
       </c>
       <c r="C873" s="27" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D873" s="25"/>
       <c r="E873" s="25" t="s">
@@ -30571,7 +30571,7 @@
         <v>1204</v>
       </c>
       <c r="C874" s="27" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D874" s="25"/>
       <c r="E874" s="25" t="s">
@@ -30596,7 +30596,7 @@
         <v>1204</v>
       </c>
       <c r="C875" s="27" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D875" s="25"/>
       <c r="E875" s="25" t="s">
@@ -30621,7 +30621,7 @@
         <v>1204</v>
       </c>
       <c r="C876" s="27" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D876" s="25"/>
       <c r="E876" s="25" t="s">
@@ -30646,7 +30646,7 @@
         <v>1204</v>
       </c>
       <c r="C877" s="27" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D877" s="25"/>
       <c r="E877" s="25" t="s">
@@ -30671,7 +30671,7 @@
         <v>1204</v>
       </c>
       <c r="C878" s="27" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D878" s="25"/>
       <c r="E878" s="25" t="s">
@@ -30696,7 +30696,7 @@
         <v>1204</v>
       </c>
       <c r="C879" s="27" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D879" s="25"/>
       <c r="E879" s="25" t="s">
@@ -30721,7 +30721,7 @@
         <v>1204</v>
       </c>
       <c r="C880" s="27" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D880" s="25"/>
       <c r="E880" s="25" t="s">
@@ -30746,7 +30746,7 @@
         <v>1204</v>
       </c>
       <c r="C881" s="27" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D881" s="25"/>
       <c r="E881" s="25" t="s">
@@ -30771,7 +30771,7 @@
         <v>1204</v>
       </c>
       <c r="C882" s="27" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D882" s="25"/>
       <c r="E882" s="25" t="s">
@@ -30796,7 +30796,7 @@
         <v>1204</v>
       </c>
       <c r="C883" s="27" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D883" s="25"/>
       <c r="E883" s="25" t="s">
@@ -30821,7 +30821,7 @@
         <v>1204</v>
       </c>
       <c r="C884" s="27" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D884" s="25"/>
       <c r="E884" s="25" t="s">
@@ -30846,7 +30846,7 @@
         <v>1204</v>
       </c>
       <c r="C885" s="27" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D885" s="25"/>
       <c r="E885" s="25" t="s">
@@ -30871,7 +30871,7 @@
         <v>1204</v>
       </c>
       <c r="C886" s="17" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D886" s="25"/>
       <c r="E886" s="25" t="s">
@@ -30896,7 +30896,7 @@
         <v>1204</v>
       </c>
       <c r="C887" s="17" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D887" s="25"/>
       <c r="E887" s="25" t="s">
@@ -30921,7 +30921,7 @@
         <v>1204</v>
       </c>
       <c r="C888" s="27" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D888" s="25"/>
       <c r="E888" s="25" t="s">
@@ -30946,7 +30946,7 @@
         <v>1204</v>
       </c>
       <c r="C889" s="27" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D889" s="25"/>
       <c r="E889" s="25" t="s">
@@ -30971,7 +30971,7 @@
         <v>1205</v>
       </c>
       <c r="C890" s="27" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D890" s="25"/>
       <c r="E890" s="25" t="s">
@@ -30996,7 +30996,7 @@
         <v>1205</v>
       </c>
       <c r="C891" s="27" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D891" s="25"/>
       <c r="E891" s="25" t="s">
@@ -31021,7 +31021,7 @@
         <v>1205</v>
       </c>
       <c r="C892" s="27" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D892" s="25"/>
       <c r="E892" s="25" t="s">
@@ -31046,7 +31046,7 @@
         <v>1205</v>
       </c>
       <c r="C893" s="27" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D893" s="25"/>
       <c r="E893" s="25" t="s">
@@ -31071,7 +31071,7 @@
         <v>1205</v>
       </c>
       <c r="C894" s="27" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D894" s="25"/>
       <c r="E894" s="25" t="s">
@@ -31096,7 +31096,7 @@
         <v>1205</v>
       </c>
       <c r="C895" s="27" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D895" s="25"/>
       <c r="E895" s="25" t="s">
@@ -31121,7 +31121,7 @@
         <v>1205</v>
       </c>
       <c r="C896" s="27" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D896" s="25"/>
       <c r="E896" s="25" t="s">
@@ -31146,7 +31146,7 @@
         <v>1205</v>
       </c>
       <c r="C897" s="27" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D897" s="25"/>
       <c r="E897" s="25" t="s">
@@ -31171,7 +31171,7 @@
         <v>1205</v>
       </c>
       <c r="C898" s="27" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D898" s="25"/>
       <c r="E898" s="25" t="s">
@@ -31196,7 +31196,7 @@
         <v>1205</v>
       </c>
       <c r="C899" s="27" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D899" s="25"/>
       <c r="E899" s="25" t="s">
@@ -31221,7 +31221,7 @@
         <v>1205</v>
       </c>
       <c r="C900" s="27" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D900" s="25"/>
       <c r="E900" s="25" t="s">
@@ -31246,7 +31246,7 @@
         <v>1205</v>
       </c>
       <c r="C901" s="27" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D901" s="25"/>
       <c r="E901" s="25" t="s">
@@ -31271,7 +31271,7 @@
         <v>1205</v>
       </c>
       <c r="C902" s="27" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D902" s="25"/>
       <c r="E902" s="25" t="s">
@@ -31296,7 +31296,7 @@
         <v>1206</v>
       </c>
       <c r="C903" s="27" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D903" s="25"/>
       <c r="E903" s="25" t="s">
@@ -31321,7 +31321,7 @@
         <v>1206</v>
       </c>
       <c r="C904" s="27" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D904" s="25"/>
       <c r="E904" s="25" t="s">
@@ -31346,7 +31346,7 @@
         <v>1206</v>
       </c>
       <c r="C905" s="27" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D905" s="25"/>
       <c r="E905" s="25" t="s">
@@ -31371,7 +31371,7 @@
         <v>1206</v>
       </c>
       <c r="C906" s="27" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D906" s="25"/>
       <c r="E906" s="25" t="s">
@@ -31396,7 +31396,7 @@
         <v>1206</v>
       </c>
       <c r="C907" s="27" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D907" s="25"/>
       <c r="E907" s="25" t="s">
@@ -31421,7 +31421,7 @@
         <v>1206</v>
       </c>
       <c r="C908" s="27" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D908" s="25"/>
       <c r="E908" s="25" t="s">
@@ -31446,7 +31446,7 @@
         <v>1206</v>
       </c>
       <c r="C909" s="27" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D909" s="25"/>
       <c r="E909" s="25" t="s">
@@ -31471,7 +31471,7 @@
         <v>1206</v>
       </c>
       <c r="C910" s="27" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D910" s="25"/>
       <c r="E910" s="25" t="s">
@@ -31496,7 +31496,7 @@
         <v>1206</v>
       </c>
       <c r="C911" s="27" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D911" s="25"/>
       <c r="E911" s="25" t="s">
@@ -31521,7 +31521,7 @@
         <v>1206</v>
       </c>
       <c r="C912" s="27" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D912" s="25"/>
       <c r="E912" s="25" t="s">
@@ -31546,7 +31546,7 @@
         <v>1206</v>
       </c>
       <c r="C913" s="27" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D913" s="25"/>
       <c r="E913" s="25" t="s">
@@ -31571,7 +31571,7 @@
         <v>1206</v>
       </c>
       <c r="C914" s="27" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D914" s="25"/>
       <c r="E914" s="25" t="s">
@@ -31596,7 +31596,7 @@
         <v>1206</v>
       </c>
       <c r="C915" s="27" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D915" s="25"/>
       <c r="E915" s="25" t="s">
@@ -31621,7 +31621,7 @@
         <v>1207</v>
       </c>
       <c r="C916" s="27" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D916" s="25"/>
       <c r="E916" s="25" t="s">
@@ -31646,7 +31646,7 @@
         <v>1208</v>
       </c>
       <c r="C917" s="27" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D917" s="25"/>
       <c r="E917" s="25" t="s">
@@ -31671,7 +31671,7 @@
         <v>1208</v>
       </c>
       <c r="C918" s="27" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D918" s="25"/>
       <c r="E918" s="25" t="s">
@@ -31696,7 +31696,7 @@
         <v>1208</v>
       </c>
       <c r="C919" s="17" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D919" s="25"/>
       <c r="E919" s="25" t="s">
@@ -31721,7 +31721,7 @@
         <v>1208</v>
       </c>
       <c r="C920" s="27" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D920" s="25"/>
       <c r="E920" s="25" t="s">
@@ -31746,7 +31746,7 @@
         <v>1208</v>
       </c>
       <c r="C921" s="27" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D921" s="25"/>
       <c r="E921" s="25" t="s">
@@ -31771,7 +31771,7 @@
         <v>1208</v>
       </c>
       <c r="C922" s="17" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D922" s="25"/>
       <c r="E922" s="25" t="s">
@@ -31796,7 +31796,7 @@
         <v>1208</v>
       </c>
       <c r="C923" s="27" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D923" s="25"/>
       <c r="E923" s="25" t="s">
@@ -31821,7 +31821,7 @@
         <v>1208</v>
       </c>
       <c r="C924" s="27" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D924" s="25"/>
       <c r="E924" s="25" t="s">
@@ -31846,7 +31846,7 @@
         <v>1208</v>
       </c>
       <c r="C925" s="27" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D925" s="25"/>
       <c r="E925" s="25" t="s">
@@ -31871,7 +31871,7 @@
         <v>1208</v>
       </c>
       <c r="C926" s="27" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D926" s="25"/>
       <c r="E926" s="25" t="s">
@@ -31896,7 +31896,7 @@
         <v>1208</v>
       </c>
       <c r="C927" s="27" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D927" s="25"/>
       <c r="E927" s="25" t="s">
@@ -31921,7 +31921,7 @@
         <v>1208</v>
       </c>
       <c r="C928" s="27" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D928" s="25"/>
       <c r="E928" s="25" t="s">
@@ -31946,7 +31946,7 @@
         <v>1208</v>
       </c>
       <c r="C929" s="27" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D929" s="25"/>
       <c r="E929" s="25" t="s">
@@ -31971,7 +31971,7 @@
         <v>1208</v>
       </c>
       <c r="C930" s="27" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D930" s="25"/>
       <c r="E930" s="25" t="s">
@@ -31996,7 +31996,7 @@
         <v>1208</v>
       </c>
       <c r="C931" s="27" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="D931" s="25"/>
       <c r="E931" s="25" t="s">
@@ -32021,7 +32021,7 @@
         <v>1208</v>
       </c>
       <c r="C932" s="27" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D932" s="25"/>
       <c r="E932" s="25" t="s">
@@ -32046,7 +32046,7 @@
         <v>1208</v>
       </c>
       <c r="C933" s="27" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D933" s="25"/>
       <c r="E933" s="25" t="s">
@@ -32071,7 +32071,7 @@
         <v>1208</v>
       </c>
       <c r="C934" s="27" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D934" s="25"/>
       <c r="E934" s="25" t="s">
@@ -32096,7 +32096,7 @@
         <v>1208</v>
       </c>
       <c r="C935" s="17" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D935" s="25"/>
       <c r="E935" s="25" t="s">
@@ -32112,7 +32112,7 @@
         <v>17</v>
       </c>
       <c r="I935" s="17" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="936" spans="1:9" ht="45">
@@ -32123,7 +32123,7 @@
         <v>1208</v>
       </c>
       <c r="C936" s="27" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D936" s="25"/>
       <c r="E936" s="25" t="s">
@@ -32148,7 +32148,7 @@
         <v>1208</v>
       </c>
       <c r="C937" s="27" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D937" s="25"/>
       <c r="E937" s="25" t="s">
@@ -32173,7 +32173,7 @@
         <v>1208</v>
       </c>
       <c r="C938" s="27" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D938" s="25"/>
       <c r="E938" s="25" t="s">
@@ -32198,7 +32198,7 @@
         <v>1208</v>
       </c>
       <c r="C939" s="27" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D939" s="25"/>
       <c r="E939" s="25" t="s">
@@ -32223,7 +32223,7 @@
         <v>1208</v>
       </c>
       <c r="C940" s="27" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D940" s="25"/>
       <c r="E940" s="25" t="s">
@@ -32248,7 +32248,7 @@
         <v>1208</v>
       </c>
       <c r="C941" s="27" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D941" s="25"/>
       <c r="E941" s="25" t="s">
@@ -32273,7 +32273,7 @@
         <v>1208</v>
       </c>
       <c r="C942" s="17" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D942" s="25"/>
       <c r="E942" s="25" t="s">
@@ -32289,7 +32289,7 @@
         <v>17</v>
       </c>
       <c r="I942" s="27" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="943" spans="1:9" ht="45">
@@ -32300,7 +32300,7 @@
         <v>1208</v>
       </c>
       <c r="C943" s="27" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D943" s="25"/>
       <c r="E943" s="25" t="s">
@@ -32316,7 +32316,7 @@
         <v>17</v>
       </c>
       <c r="I943" s="27" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="944" spans="1:9" ht="45">
@@ -32327,7 +32327,7 @@
         <v>1208</v>
       </c>
       <c r="C944" s="17" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D944" s="25"/>
       <c r="E944" s="25" t="s">
@@ -32343,7 +32343,7 @@
         <v>17</v>
       </c>
       <c r="I944" s="27" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="945" spans="1:9" ht="30">
@@ -32354,7 +32354,7 @@
         <v>1208</v>
       </c>
       <c r="C945" s="27" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D945" s="25"/>
       <c r="E945" s="25" t="s">
@@ -32379,7 +32379,7 @@
         <v>1208</v>
       </c>
       <c r="C946" s="27" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D946" s="25"/>
       <c r="E946" s="25" t="s">
@@ -32404,7 +32404,7 @@
         <v>1208</v>
       </c>
       <c r="C947" s="27" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D947" s="25"/>
       <c r="E947" s="25" t="s">
@@ -32429,7 +32429,7 @@
         <v>1208</v>
       </c>
       <c r="C948" s="27" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D948" s="25"/>
       <c r="E948" s="25" t="s">
@@ -32454,7 +32454,7 @@
         <v>1208</v>
       </c>
       <c r="C949" s="27" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D949" s="25"/>
       <c r="E949" s="25" t="s">
@@ -32479,7 +32479,7 @@
         <v>1208</v>
       </c>
       <c r="C950" s="27" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D950" s="25"/>
       <c r="E950" s="25" t="s">
@@ -32504,7 +32504,7 @@
         <v>1208</v>
       </c>
       <c r="C951" s="17" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D951" s="25"/>
       <c r="E951" s="25" t="s">
@@ -32529,7 +32529,7 @@
         <v>1208</v>
       </c>
       <c r="C952" s="27" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D952" s="25"/>
       <c r="E952" s="25" t="s">
@@ -32554,7 +32554,7 @@
         <v>1208</v>
       </c>
       <c r="C953" s="27" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D953" s="25"/>
       <c r="E953" s="25" t="s">
@@ -32579,7 +32579,7 @@
         <v>1208</v>
       </c>
       <c r="C954" s="27" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D954" s="25"/>
       <c r="E954" s="25" t="s">
@@ -32604,7 +32604,7 @@
         <v>1208</v>
       </c>
       <c r="C955" s="27" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D955" s="25"/>
       <c r="E955" s="25" t="s">
@@ -32629,7 +32629,7 @@
         <v>1208</v>
       </c>
       <c r="C956" s="27" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D956" s="25"/>
       <c r="E956" s="25" t="s">
@@ -32654,7 +32654,7 @@
         <v>1208</v>
       </c>
       <c r="C957" s="27" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D957" s="25"/>
       <c r="E957" s="25" t="s">
@@ -32679,7 +32679,7 @@
         <v>1208</v>
       </c>
       <c r="C958" s="27" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D958" s="25"/>
       <c r="E958" s="25" t="s">
@@ -32704,7 +32704,7 @@
         <v>1208</v>
       </c>
       <c r="C959" s="27" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D959" s="25"/>
       <c r="E959" s="25" t="s">
@@ -32729,7 +32729,7 @@
         <v>1208</v>
       </c>
       <c r="C960" s="27" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D960" s="25"/>
       <c r="E960" s="25" t="s">
@@ -32754,7 +32754,7 @@
         <v>1208</v>
       </c>
       <c r="C961" s="27" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D961" s="25"/>
       <c r="E961" s="25" t="s">
@@ -32779,7 +32779,7 @@
         <v>1208</v>
       </c>
       <c r="C962" s="27" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D962" s="25"/>
       <c r="E962" s="25" t="s">
@@ -32804,7 +32804,7 @@
         <v>1208</v>
       </c>
       <c r="C963" s="27" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D963" s="25"/>
       <c r="E963" s="25" t="s">
@@ -32829,7 +32829,7 @@
         <v>1209</v>
       </c>
       <c r="C964" s="27" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D964" s="25"/>
       <c r="E964" s="25" t="s">
@@ -32854,7 +32854,7 @@
         <v>1209</v>
       </c>
       <c r="C965" s="27" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D965" s="25"/>
       <c r="E965" s="25" t="s">
@@ -32879,7 +32879,7 @@
         <v>1209</v>
       </c>
       <c r="C966" s="27" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D966" s="25"/>
       <c r="E966" s="25" t="s">
@@ -32904,7 +32904,7 @@
         <v>1209</v>
       </c>
       <c r="C967" s="27" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D967" s="25"/>
       <c r="E967" s="25" t="s">
@@ -32929,7 +32929,7 @@
         <v>1210</v>
       </c>
       <c r="C968" s="27" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D968" s="25"/>
       <c r="E968" s="25" t="s">
@@ -32954,7 +32954,7 @@
         <v>1210</v>
       </c>
       <c r="C969" s="27" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D969" s="25"/>
       <c r="E969" s="25" t="s">
@@ -32979,7 +32979,7 @@
         <v>1210</v>
       </c>
       <c r="C970" s="27" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D970" s="25"/>
       <c r="E970" s="25" t="s">
@@ -33004,7 +33004,7 @@
         <v>1210</v>
       </c>
       <c r="C971" s="27" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D971" s="25"/>
       <c r="E971" s="25" t="s">
@@ -33029,7 +33029,7 @@
         <v>1210</v>
       </c>
       <c r="C972" s="27" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D972" s="25"/>
       <c r="E972" s="25" t="s">
@@ -33054,7 +33054,7 @@
         <v>1210</v>
       </c>
       <c r="C973" s="27" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D973" s="25"/>
       <c r="E973" s="25" t="s">
@@ -33079,7 +33079,7 @@
         <v>1211</v>
       </c>
       <c r="C974" s="27" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D974" s="25"/>
       <c r="E974" s="25" t="s">
@@ -33104,7 +33104,7 @@
         <v>1212</v>
       </c>
       <c r="C975" s="27" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D975" s="25"/>
       <c r="E975" s="25" t="s">
@@ -33129,7 +33129,7 @@
         <v>1212</v>
       </c>
       <c r="C976" s="27" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D976" s="25"/>
       <c r="E976" s="25" t="s">
@@ -33154,7 +33154,7 @@
         <v>1212</v>
       </c>
       <c r="C977" s="27" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D977" s="25"/>
       <c r="E977" s="25" t="s">
@@ -33179,7 +33179,7 @@
         <v>1212</v>
       </c>
       <c r="C978" s="27" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D978" s="25"/>
       <c r="E978" s="25" t="s">
@@ -33204,7 +33204,7 @@
         <v>1212</v>
       </c>
       <c r="C979" s="27" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D979" s="25"/>
       <c r="E979" s="25" t="s">
@@ -33229,7 +33229,7 @@
         <v>1212</v>
       </c>
       <c r="C980" s="27" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D980" s="25"/>
       <c r="E980" s="25" t="s">
@@ -33254,7 +33254,7 @@
         <v>1212</v>
       </c>
       <c r="C981" s="27" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D981" s="25"/>
       <c r="E981" s="25" t="s">
@@ -33279,7 +33279,7 @@
         <v>1212</v>
       </c>
       <c r="C982" s="27" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D982" s="25"/>
       <c r="E982" s="25" t="s">
@@ -33304,7 +33304,7 @@
         <v>1212</v>
       </c>
       <c r="C983" s="27" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D983" s="25"/>
       <c r="E983" s="25" t="s">
@@ -33329,7 +33329,7 @@
         <v>1212</v>
       </c>
       <c r="C984" s="27" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D984" s="25"/>
       <c r="E984" s="25" t="s">
@@ -33354,7 +33354,7 @@
         <v>1212</v>
       </c>
       <c r="C985" s="17" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D985" s="25"/>
       <c r="E985" s="25" t="s">
@@ -33370,7 +33370,7 @@
         <v>17</v>
       </c>
       <c r="I985" s="17" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="986" spans="1:9" ht="60">
@@ -33381,7 +33381,7 @@
         <v>1212</v>
       </c>
       <c r="C986" s="27" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D986" s="25"/>
       <c r="E986" s="25" t="s">
@@ -33406,7 +33406,7 @@
         <v>1212</v>
       </c>
       <c r="C987" s="17" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D987" s="25"/>
       <c r="E987" s="25" t="s">
@@ -33431,7 +33431,7 @@
         <v>1212</v>
       </c>
       <c r="C988" s="27" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D988" s="25"/>
       <c r="E988" s="25" t="s">
@@ -33456,7 +33456,7 @@
         <v>1212</v>
       </c>
       <c r="C989" s="27" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D989" s="25"/>
       <c r="E989" s="25" t="s">
@@ -33481,7 +33481,7 @@
         <v>1212</v>
       </c>
       <c r="C990" s="27" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D990" s="25"/>
       <c r="E990" s="25" t="s">
@@ -33506,7 +33506,7 @@
         <v>1212</v>
       </c>
       <c r="C991" s="27" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D991" s="25"/>
       <c r="E991" s="25" t="s">
@@ -33531,7 +33531,7 @@
         <v>1212</v>
       </c>
       <c r="C992" s="27" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D992" s="25"/>
       <c r="E992" s="25" t="s">
@@ -33556,7 +33556,7 @@
         <v>1212</v>
       </c>
       <c r="C993" s="27" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D993" s="25"/>
       <c r="E993" s="25" t="s">
@@ -33581,7 +33581,7 @@
         <v>1212</v>
       </c>
       <c r="C994" s="17" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D994" s="25"/>
       <c r="E994" s="25" t="s">
@@ -33606,7 +33606,7 @@
         <v>1212</v>
       </c>
       <c r="C995" s="17" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D995" s="25"/>
       <c r="E995" s="25" t="s">
@@ -33631,7 +33631,7 @@
         <v>1213</v>
       </c>
       <c r="C996" s="27" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D996" s="25"/>
       <c r="E996" s="25" t="s">
@@ -33656,7 +33656,7 @@
         <v>1213</v>
       </c>
       <c r="C997" s="27" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D997" s="25"/>
       <c r="E997" s="25" t="s">
@@ -33681,7 +33681,7 @@
         <v>1213</v>
       </c>
       <c r="C998" s="27" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D998" s="25"/>
       <c r="E998" s="25" t="s">
@@ -33706,7 +33706,7 @@
         <v>1214</v>
       </c>
       <c r="C999" s="27" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D999" s="25"/>
       <c r="E999" s="25" t="s">
@@ -33731,7 +33731,7 @@
         <v>1214</v>
       </c>
       <c r="C1000" s="27" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D1000" s="25"/>
       <c r="E1000" s="25" t="s">
@@ -33756,7 +33756,7 @@
         <v>1214</v>
       </c>
       <c r="C1001" s="27" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D1001" s="25"/>
       <c r="E1001" s="25" t="s">
@@ -33781,7 +33781,7 @@
         <v>1215</v>
       </c>
       <c r="C1002" s="27" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D1002" s="25"/>
       <c r="E1002" s="25" t="s">
@@ -33806,7 +33806,7 @@
         <v>1215</v>
       </c>
       <c r="C1003" s="27" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D1003" s="25"/>
       <c r="E1003" s="25" t="s">
@@ -33831,7 +33831,7 @@
         <v>1215</v>
       </c>
       <c r="C1004" s="27" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D1004" s="25"/>
       <c r="E1004" s="25" t="s">
@@ -33856,10 +33856,10 @@
         <v>1215</v>
       </c>
       <c r="C1005" s="27" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D1005" s="25" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E1005" s="25" t="s">
         <v>22</v>
@@ -33883,10 +33883,10 @@
         <v>1215</v>
       </c>
       <c r="C1006" s="27" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D1006" s="25" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E1006" s="25" t="s">
         <v>22</v>
@@ -33910,10 +33910,10 @@
         <v>1215</v>
       </c>
       <c r="C1007" s="27" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D1007" s="25" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E1007" s="25" t="s">
         <v>22</v>
@@ -33937,7 +33937,7 @@
         <v>1215</v>
       </c>
       <c r="C1008" s="27" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D1008" s="25"/>
       <c r="E1008" s="25" t="s">
@@ -33962,7 +33962,7 @@
         <v>1215</v>
       </c>
       <c r="C1009" s="27" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D1009" s="25"/>
       <c r="E1009" s="25" t="s">
@@ -33987,10 +33987,10 @@
         <v>1215</v>
       </c>
       <c r="C1010" s="17" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D1010" s="25" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E1010" s="25" t="s">
         <v>22</v>
@@ -34014,10 +34014,10 @@
         <v>1215</v>
       </c>
       <c r="C1011" s="27" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D1011" s="25" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E1011" s="25" t="s">
         <v>22</v>
@@ -34041,10 +34041,10 @@
         <v>1215</v>
       </c>
       <c r="C1012" s="27" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="D1012" s="25" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E1012" s="25" t="s">
         <v>22</v>
@@ -34059,7 +34059,7 @@
         <v>20</v>
       </c>
       <c r="I1012" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1013" spans="1:9" ht="60">
@@ -34070,10 +34070,10 @@
         <v>1215</v>
       </c>
       <c r="C1013" s="27" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D1013" s="25" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E1013" s="25" t="s">
         <v>22</v>
@@ -34097,10 +34097,10 @@
         <v>1215</v>
       </c>
       <c r="C1014" s="27" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D1014" s="25" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E1014" s="25" t="s">
         <v>22</v>
@@ -34124,10 +34124,10 @@
         <v>1215</v>
       </c>
       <c r="C1015" s="17" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D1015" s="25" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E1015" s="25" t="s">
         <v>22</v>
@@ -34145,16 +34145,16 @@
     </row>
     <row r="1016" spans="1:9" ht="60">
       <c r="A1016" s="30" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B1016" s="31" t="s">
         <v>1215</v>
       </c>
       <c r="C1016" s="32" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D1016" s="30" t="s">
         <v>2287</v>
-      </c>
-      <c r="D1016" s="30" t="s">
-        <v>2288</v>
       </c>
       <c r="E1016" s="25" t="s">
         <v>22</v>
@@ -34172,16 +34172,16 @@
     </row>
     <row r="1017" spans="1:9" ht="45">
       <c r="A1017" s="30" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B1017" s="31" t="s">
         <v>1215</v>
       </c>
       <c r="C1017" s="32" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="D1017" s="30" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E1017" s="25" t="s">
         <v>22</v>
@@ -34205,7 +34205,7 @@
         <v>1215</v>
       </c>
       <c r="C1018" s="17" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D1018" s="25"/>
       <c r="E1018" s="25" t="s">
@@ -34230,7 +34230,7 @@
         <v>1215</v>
       </c>
       <c r="C1019" s="17" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D1019" s="25"/>
       <c r="E1019" s="25" t="s">
@@ -34255,7 +34255,7 @@
         <v>1215</v>
       </c>
       <c r="C1020" s="17" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D1020" s="25"/>
       <c r="E1020" s="25" t="s">
@@ -34271,7 +34271,7 @@
         <v>17</v>
       </c>
       <c r="I1020" s="27" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1021" spans="1:9" ht="45">
@@ -34282,7 +34282,7 @@
         <v>1215</v>
       </c>
       <c r="C1021" s="17" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D1021" s="25"/>
       <c r="E1021" s="25" t="s">
@@ -34307,10 +34307,10 @@
         <v>1215</v>
       </c>
       <c r="C1022" s="17" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D1022" s="25" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E1022" s="25" t="s">
         <v>22</v>
@@ -34334,7 +34334,7 @@
         <v>1215</v>
       </c>
       <c r="C1023" s="17" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D1023" s="25"/>
       <c r="E1023" s="25" t="s">
@@ -34359,7 +34359,7 @@
         <v>1215</v>
       </c>
       <c r="C1024" s="17" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D1024" s="25"/>
       <c r="E1024" s="25" t="s">
@@ -34384,10 +34384,10 @@
         <v>1215</v>
       </c>
       <c r="C1025" s="17" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D1025" s="25" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="E1025" s="25" t="s">
         <v>22</v>
@@ -34402,7 +34402,7 @@
         <v>20</v>
       </c>
       <c r="I1025" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1026" spans="1:9" ht="45">
@@ -34413,10 +34413,10 @@
         <v>1215</v>
       </c>
       <c r="C1026" s="27" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D1026" s="25" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="E1026" s="25" t="s">
         <v>22</v>
@@ -34431,7 +34431,7 @@
         <v>20</v>
       </c>
       <c r="I1026" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1027" spans="1:9" ht="60">
@@ -34442,10 +34442,10 @@
         <v>1215</v>
       </c>
       <c r="C1027" s="17" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D1027" s="25" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="E1027" s="25" t="s">
         <v>22</v>
@@ -34460,7 +34460,7 @@
         <v>20</v>
       </c>
       <c r="I1027" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1028" spans="1:9" ht="45">
@@ -34471,10 +34471,10 @@
         <v>1215</v>
       </c>
       <c r="C1028" s="27" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D1028" s="25" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="E1028" s="25" t="s">
         <v>22</v>
@@ -34489,7 +34489,7 @@
         <v>20</v>
       </c>
       <c r="I1028" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1029" spans="1:9" ht="90">
@@ -34500,10 +34500,10 @@
         <v>1215</v>
       </c>
       <c r="C1029" s="17" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D1029" s="25" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="E1029" s="25" t="s">
         <v>22</v>
@@ -34518,7 +34518,7 @@
         <v>20</v>
       </c>
       <c r="I1029" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1030" spans="1:9" ht="120">
@@ -34529,10 +34529,10 @@
         <v>1215</v>
       </c>
       <c r="C1030" s="17" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D1030" s="25" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="E1030" s="25" t="s">
         <v>22</v>
@@ -34547,7 +34547,7 @@
         <v>20</v>
       </c>
       <c r="I1030" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1031" spans="1:9" ht="45">
@@ -34558,10 +34558,10 @@
         <v>1215</v>
       </c>
       <c r="C1031" s="17" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D1031" s="25" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E1031" s="25" t="s">
         <v>22</v>
@@ -34576,7 +34576,7 @@
         <v>21</v>
       </c>
       <c r="I1031" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1032" spans="1:9" ht="45">
@@ -34587,10 +34587,10 @@
         <v>1215</v>
       </c>
       <c r="C1032" s="27" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D1032" s="25" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E1032" s="25" t="s">
         <v>22</v>
@@ -34605,7 +34605,7 @@
         <v>21</v>
       </c>
       <c r="I1032" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1033" spans="1:9" ht="60">
@@ -34616,10 +34616,10 @@
         <v>1215</v>
       </c>
       <c r="C1033" s="17" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D1033" s="25" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E1033" s="25" t="s">
         <v>22</v>
@@ -34634,7 +34634,7 @@
         <v>20</v>
       </c>
       <c r="I1033" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1034" spans="1:9" ht="60">
@@ -34645,10 +34645,10 @@
         <v>1215</v>
       </c>
       <c r="C1034" s="17" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D1034" s="25" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E1034" s="25" t="s">
         <v>22</v>
@@ -34663,7 +34663,7 @@
         <v>20</v>
       </c>
       <c r="I1034" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1035" spans="1:9" ht="75">
@@ -34674,10 +34674,10 @@
         <v>1215</v>
       </c>
       <c r="C1035" s="17" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D1035" s="25" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E1035" s="25" t="s">
         <v>22</v>
@@ -34701,10 +34701,10 @@
         <v>1215</v>
       </c>
       <c r="C1036" s="27" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D1036" s="25" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E1036" s="25" t="s">
         <v>22</v>
@@ -34719,7 +34719,7 @@
         <v>20</v>
       </c>
       <c r="I1036" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1037" spans="1:9" ht="45">
@@ -34730,7 +34730,7 @@
         <v>1215</v>
       </c>
       <c r="C1037" s="17" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1037" s="25"/>
       <c r="E1037" s="25" t="s">
@@ -34749,16 +34749,16 @@
     </row>
     <row r="1038" spans="1:9" ht="60">
       <c r="A1038" s="18" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B1038" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1038" s="17" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D1038" s="25" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="E1038" s="25" t="s">
         <v>22</v>
@@ -34773,21 +34773,21 @@
         <v>20</v>
       </c>
       <c r="I1038" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1039" spans="1:9" ht="60">
       <c r="A1039" s="18" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B1039" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1039" s="17" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1039" s="25" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="E1039" s="25" t="s">
         <v>22</v>
@@ -34802,7 +34802,7 @@
         <v>20</v>
       </c>
       <c r="I1039" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1040" spans="1:9" ht="90">
@@ -34813,10 +34813,10 @@
         <v>1215</v>
       </c>
       <c r="C1040" s="17" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D1040" s="25" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E1040" s="25" t="s">
         <v>22</v>
@@ -34831,7 +34831,7 @@
         <v>20</v>
       </c>
       <c r="I1040" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1041" spans="1:9" ht="45">
@@ -34842,10 +34842,10 @@
         <v>1215</v>
       </c>
       <c r="C1041" s="27" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D1041" s="25" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E1041" s="25" t="s">
         <v>22</v>
@@ -34860,21 +34860,21 @@
         <v>20</v>
       </c>
       <c r="I1041" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1042" spans="1:9" ht="60">
       <c r="A1042" s="18" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B1042" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1042" s="17" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D1042" s="25" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E1042" s="25" t="s">
         <v>22</v>
@@ -34889,21 +34889,21 @@
         <v>20</v>
       </c>
       <c r="I1042" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1043" spans="1:9" ht="45">
       <c r="A1043" s="18" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B1043" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1043" s="17" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D1043" s="25" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E1043" s="25" t="s">
         <v>22</v>
@@ -34918,7 +34918,7 @@
         <v>20</v>
       </c>
       <c r="I1043" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1044" spans="1:9" ht="60">
@@ -34929,10 +34929,10 @@
         <v>1215</v>
       </c>
       <c r="C1044" s="17" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D1044" s="25" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E1044" s="25" t="s">
         <v>22</v>
@@ -34956,10 +34956,10 @@
         <v>1215</v>
       </c>
       <c r="C1045" s="27" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="D1045" s="25" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E1045" s="25" t="s">
         <v>22</v>
@@ -34974,7 +34974,7 @@
         <v>17</v>
       </c>
       <c r="I1045" s="27" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1046" spans="1:9" ht="105">
@@ -34985,10 +34985,10 @@
         <v>1215</v>
       </c>
       <c r="C1046" s="17" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D1046" s="25" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E1046" s="25" t="s">
         <v>22</v>
@@ -35006,16 +35006,16 @@
     </row>
     <row r="1047" spans="1:9" ht="45">
       <c r="A1047" s="25" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B1047" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1047" s="27" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D1047" s="25" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E1047" s="25" t="s">
         <v>22</v>
@@ -35033,16 +35033,16 @@
     </row>
     <row r="1048" spans="1:9" ht="45">
       <c r="A1048" s="25" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B1048" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1048" s="17" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D1048" s="25" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E1048" s="25" t="s">
         <v>22</v>
@@ -35066,10 +35066,10 @@
         <v>1215</v>
       </c>
       <c r="C1049" s="17" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D1049" s="25" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E1049" s="25" t="s">
         <v>22</v>
@@ -35093,10 +35093,10 @@
         <v>1215</v>
       </c>
       <c r="C1050" s="17" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D1050" s="25" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E1050" s="25" t="s">
         <v>22</v>
@@ -35111,7 +35111,7 @@
         <v>20</v>
       </c>
       <c r="I1050" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1051" spans="1:9" ht="45">
@@ -35122,10 +35122,10 @@
         <v>1215</v>
       </c>
       <c r="C1051" s="17" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D1051" s="18" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E1051" s="25" t="s">
         <v>22</v>
@@ -35140,7 +35140,7 @@
         <v>20</v>
       </c>
       <c r="I1051" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1052" spans="1:9" ht="45">
@@ -35151,10 +35151,10 @@
         <v>1215</v>
       </c>
       <c r="C1052" s="17" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D1052" s="25" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E1052" s="25" t="s">
         <v>22</v>
@@ -35169,7 +35169,7 @@
         <v>20</v>
       </c>
       <c r="I1052" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1053" spans="1:9" ht="60">
@@ -35180,10 +35180,10 @@
         <v>1215</v>
       </c>
       <c r="C1053" s="17" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D1053" s="25" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E1053" s="25" t="s">
         <v>22</v>
@@ -35198,21 +35198,21 @@
         <v>20</v>
       </c>
       <c r="I1053" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1054" spans="1:9" ht="45">
       <c r="A1054" s="25" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B1054" s="31" t="s">
         <v>1215</v>
       </c>
       <c r="C1054" s="17" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D1054" s="25" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E1054" s="25" t="s">
         <v>22</v>
@@ -35236,10 +35236,10 @@
         <v>1215</v>
       </c>
       <c r="C1055" s="17" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D1055" s="25" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E1055" s="25" t="s">
         <v>22</v>
@@ -35263,7 +35263,7 @@
         <v>1215</v>
       </c>
       <c r="C1056" s="17" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D1056" s="25"/>
       <c r="E1056" s="25" t="s">
@@ -35279,7 +35279,7 @@
         <v>17</v>
       </c>
       <c r="I1056" s="27" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1057" spans="1:9" ht="45">
@@ -35290,7 +35290,7 @@
         <v>1215</v>
       </c>
       <c r="C1057" s="17" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D1057" s="25"/>
       <c r="E1057" s="25" t="s">
@@ -35315,10 +35315,10 @@
         <v>1215</v>
       </c>
       <c r="C1058" s="17" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D1058" s="25" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E1058" s="25" t="s">
         <v>22</v>
@@ -35342,10 +35342,10 @@
         <v>1215</v>
       </c>
       <c r="C1059" s="17" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D1059" s="25" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E1059" s="25" t="s">
         <v>22</v>
@@ -35369,10 +35369,10 @@
         <v>1215</v>
       </c>
       <c r="C1060" s="17" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D1060" s="25" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E1060" s="25" t="s">
         <v>22</v>
@@ -35396,10 +35396,10 @@
         <v>1215</v>
       </c>
       <c r="C1061" s="17" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D1061" s="25" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E1061" s="25" t="s">
         <v>22</v>
@@ -35417,16 +35417,16 @@
     </row>
     <row r="1062" spans="1:9" ht="75">
       <c r="A1062" s="18" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B1062" s="20" t="s">
         <v>1215</v>
       </c>
       <c r="C1062" s="17" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D1062" s="18" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E1062" s="25" t="s">
         <v>22</v>
@@ -35441,21 +35441,21 @@
         <v>20</v>
       </c>
       <c r="I1062" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1063" spans="1:9" ht="90">
       <c r="A1063" s="18" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B1063" s="31" t="s">
         <v>1215</v>
       </c>
       <c r="C1063" s="17" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D1063" s="18" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E1063" s="25" t="s">
         <v>22</v>
@@ -35470,7 +35470,7 @@
         <v>20</v>
       </c>
       <c r="I1063" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1064" spans="1:9" ht="90">
@@ -35481,10 +35481,10 @@
         <v>1215</v>
       </c>
       <c r="C1064" s="17" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D1064" s="18" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E1064" s="25" t="s">
         <v>22</v>
@@ -35499,7 +35499,7 @@
         <v>20</v>
       </c>
       <c r="I1064" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1065" spans="1:9" ht="75">
@@ -35510,10 +35510,10 @@
         <v>1215</v>
       </c>
       <c r="C1065" s="27" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D1065" s="25" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E1065" s="25" t="s">
         <v>22</v>
@@ -35528,7 +35528,7 @@
         <v>20</v>
       </c>
       <c r="I1065" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1066" spans="1:9" ht="45">
@@ -35539,10 +35539,10 @@
         <v>1215</v>
       </c>
       <c r="C1066" s="17" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D1066" s="25" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E1066" s="25" t="s">
         <v>22</v>
@@ -35557,7 +35557,7 @@
         <v>20</v>
       </c>
       <c r="I1066" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1067" spans="1:9" ht="60">
@@ -35568,10 +35568,10 @@
         <v>1215</v>
       </c>
       <c r="C1067" s="27" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D1067" s="25" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E1067" s="25" t="s">
         <v>22</v>
@@ -35586,7 +35586,7 @@
         <v>20</v>
       </c>
       <c r="I1067" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1068" spans="1:9" ht="45">
@@ -35597,7 +35597,7 @@
         <v>1215</v>
       </c>
       <c r="C1068" s="27" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D1068" s="25"/>
       <c r="E1068" s="25" t="s">
@@ -35622,10 +35622,10 @@
         <v>1215</v>
       </c>
       <c r="C1069" s="27" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D1069" s="25" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E1069" s="25" t="s">
         <v>22</v>
@@ -35649,10 +35649,10 @@
         <v>1215</v>
       </c>
       <c r="C1070" s="27" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D1070" s="25" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E1070" s="25" t="s">
         <v>22</v>
@@ -35667,7 +35667,7 @@
         <v>20</v>
       </c>
       <c r="I1070" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1071" spans="1:9" ht="45">
@@ -35678,10 +35678,10 @@
         <v>1215</v>
       </c>
       <c r="C1071" s="27" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D1071" s="25" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E1071" s="25" t="s">
         <v>22</v>
@@ -35696,21 +35696,21 @@
         <v>20</v>
       </c>
       <c r="I1071" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1072" spans="1:9" ht="45">
       <c r="A1072" s="25" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B1072" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1072" s="17" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D1072" s="25" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E1072" s="25" t="s">
         <v>22</v>
@@ -35725,7 +35725,7 @@
         <v>20</v>
       </c>
       <c r="I1072" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1073" spans="1:9" ht="45">
@@ -35736,10 +35736,10 @@
         <v>1215</v>
       </c>
       <c r="C1073" s="27" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D1073" s="25" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="E1073" s="25" t="s">
         <v>22</v>
@@ -35763,10 +35763,10 @@
         <v>1215</v>
       </c>
       <c r="C1074" s="27" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D1074" s="25" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="E1074" s="25" t="s">
         <v>22</v>
@@ -35790,10 +35790,10 @@
         <v>1215</v>
       </c>
       <c r="C1075" s="17" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D1075" s="25" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="E1075" s="25" t="s">
         <v>22</v>
@@ -35817,10 +35817,10 @@
         <v>1215</v>
       </c>
       <c r="C1076" s="27" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D1076" s="25" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="E1076" s="25" t="s">
         <v>22</v>
@@ -35844,10 +35844,10 @@
         <v>1215</v>
       </c>
       <c r="C1077" s="27" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D1077" s="25" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="E1077" s="25" t="s">
         <v>22</v>
@@ -35871,10 +35871,10 @@
         <v>1215</v>
       </c>
       <c r="C1078" s="17" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D1078" s="25" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E1078" s="25" t="s">
         <v>22</v>
@@ -35898,10 +35898,10 @@
         <v>1215</v>
       </c>
       <c r="C1079" s="17" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D1079" s="25" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E1079" s="25" t="s">
         <v>22</v>
@@ -35916,7 +35916,7 @@
         <v>20</v>
       </c>
       <c r="I1079" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1080" spans="1:9" ht="30">
@@ -35927,10 +35927,10 @@
         <v>1215</v>
       </c>
       <c r="C1080" s="27" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D1080" s="25" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E1080" s="25" t="s">
         <v>22</v>
@@ -35954,10 +35954,10 @@
         <v>1215</v>
       </c>
       <c r="C1081" s="27" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D1081" s="25" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E1081" s="25" t="s">
         <v>22</v>
@@ -35981,10 +35981,10 @@
         <v>1215</v>
       </c>
       <c r="C1082" s="27" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D1082" s="25" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E1082" s="25" t="s">
         <v>22</v>
@@ -36008,10 +36008,10 @@
         <v>1215</v>
       </c>
       <c r="C1083" s="27" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D1083" s="25" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E1083" s="25" t="s">
         <v>22</v>
@@ -36035,10 +36035,10 @@
         <v>1215</v>
       </c>
       <c r="C1084" s="17" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D1084" s="25" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E1084" s="25" t="s">
         <v>22</v>
@@ -36062,10 +36062,10 @@
         <v>1215</v>
       </c>
       <c r="C1085" s="27" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D1085" s="25" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E1085" s="25" t="s">
         <v>22</v>
@@ -36089,10 +36089,10 @@
         <v>1215</v>
       </c>
       <c r="C1086" s="17" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D1086" s="25" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E1086" s="25" t="s">
         <v>22</v>
@@ -36116,10 +36116,10 @@
         <v>1215</v>
       </c>
       <c r="C1087" s="27" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D1087" s="25" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E1087" s="25" t="s">
         <v>22</v>
@@ -36143,10 +36143,10 @@
         <v>1215</v>
       </c>
       <c r="C1088" s="17" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D1088" s="25" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E1088" s="25" t="s">
         <v>22</v>
@@ -36170,10 +36170,10 @@
         <v>1215</v>
       </c>
       <c r="C1089" s="17" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D1089" s="25" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E1089" s="25" t="s">
         <v>22</v>
@@ -36188,7 +36188,7 @@
         <v>20</v>
       </c>
       <c r="I1089" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1090" spans="1:9" ht="60">
@@ -36199,10 +36199,10 @@
         <v>1215</v>
       </c>
       <c r="C1090" s="27" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D1090" s="25" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E1090" s="25" t="s">
         <v>22</v>
@@ -36217,21 +36217,21 @@
         <v>20</v>
       </c>
       <c r="I1090" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1091" spans="1:9" ht="75">
       <c r="A1091" s="18" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B1091" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1091" s="17" t="s">
-        <v>2426</v>
+        <v>2406</v>
       </c>
       <c r="D1091" s="25" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="E1091" s="25" t="s">
         <v>22</v>
@@ -36246,21 +36246,21 @@
         <v>20</v>
       </c>
       <c r="I1091" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1092" spans="1:9" ht="60">
       <c r="A1092" s="18" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B1092" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1092" s="17" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D1092" s="25" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="E1092" s="25" t="s">
         <v>22</v>
@@ -36275,7 +36275,7 @@
         <v>20</v>
       </c>
       <c r="I1092" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1093" spans="1:9" ht="60">
@@ -36286,10 +36286,10 @@
         <v>1215</v>
       </c>
       <c r="C1093" s="17" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D1093" s="25" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E1093" s="25" t="s">
         <v>22</v>
@@ -36304,7 +36304,7 @@
         <v>20</v>
       </c>
       <c r="I1093" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1094" spans="1:9" ht="45">
@@ -36315,10 +36315,10 @@
         <v>1215</v>
       </c>
       <c r="C1094" s="27" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D1094" s="25" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E1094" s="25" t="s">
         <v>22</v>
@@ -36333,7 +36333,7 @@
         <v>20</v>
       </c>
       <c r="I1094" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1095" spans="1:9" ht="60">
@@ -36344,10 +36344,10 @@
         <v>1215</v>
       </c>
       <c r="C1095" s="17" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D1095" s="25" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E1095" s="25" t="s">
         <v>22</v>
@@ -36362,7 +36362,7 @@
         <v>20</v>
       </c>
       <c r="I1095" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1096" spans="1:9" ht="45">
@@ -36373,10 +36373,10 @@
         <v>1215</v>
       </c>
       <c r="C1096" s="27" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D1096" s="25" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="E1096" s="25" t="s">
         <v>22</v>
@@ -36391,7 +36391,7 @@
         <v>20</v>
       </c>
       <c r="I1096" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1097" spans="1:9" ht="75">
@@ -36402,10 +36402,10 @@
         <v>1215</v>
       </c>
       <c r="C1097" s="17" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D1097" s="25" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E1097" s="25" t="s">
         <v>22</v>
@@ -36420,21 +36420,21 @@
         <v>20</v>
       </c>
       <c r="I1097" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1098" spans="1:9" ht="60">
       <c r="A1098" s="18" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B1098" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1098" s="17" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D1098" s="25" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E1098" s="25" t="s">
         <v>22</v>
@@ -36449,21 +36449,21 @@
         <v>20</v>
       </c>
       <c r="I1098" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1099" spans="1:9" ht="60">
       <c r="A1099" s="18" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B1099" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1099" s="17" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D1099" s="18" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E1099" s="25" t="s">
         <v>22</v>
@@ -36478,21 +36478,21 @@
         <v>20</v>
       </c>
       <c r="I1099" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1100" spans="1:9" ht="60">
       <c r="A1100" s="18" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B1100" s="20" t="s">
         <v>1215</v>
       </c>
       <c r="C1100" s="17" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D1100" s="25" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E1100" s="25" t="s">
         <v>22</v>
@@ -36507,21 +36507,21 @@
         <v>20</v>
       </c>
       <c r="I1100" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1101" spans="1:9" ht="45">
       <c r="A1101" s="18" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B1101" s="20" t="s">
         <v>1215</v>
       </c>
       <c r="C1101" s="17" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D1101" s="25" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E1101" s="25" t="s">
         <v>22</v>
@@ -36536,21 +36536,21 @@
         <v>20</v>
       </c>
       <c r="I1101" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1102" spans="1:9" ht="60">
       <c r="A1102" s="18" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B1102" s="20" t="s">
         <v>1215</v>
       </c>
       <c r="C1102" s="17" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D1102" s="25" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E1102" s="25" t="s">
         <v>22</v>
@@ -36565,21 +36565,21 @@
         <v>20</v>
       </c>
       <c r="I1102" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1103" spans="1:9" ht="45">
       <c r="A1103" s="18" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B1103" s="20" t="s">
         <v>1215</v>
       </c>
       <c r="C1103" s="17" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D1103" s="25" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E1103" s="25" t="s">
         <v>22</v>
@@ -36594,7 +36594,7 @@
         <v>20</v>
       </c>
       <c r="I1103" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1104" spans="1:9" ht="45">
@@ -36605,10 +36605,10 @@
         <v>1215</v>
       </c>
       <c r="C1104" s="27" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D1104" s="25" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="E1104" s="25" t="s">
         <v>22</v>
@@ -36623,7 +36623,7 @@
         <v>20</v>
       </c>
       <c r="I1104" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1105" spans="1:9" ht="60">
@@ -36634,10 +36634,10 @@
         <v>1215</v>
       </c>
       <c r="C1105" s="27" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D1105" s="25" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E1105" s="25" t="s">
         <v>22</v>
@@ -36652,7 +36652,7 @@
         <v>20</v>
       </c>
       <c r="I1105" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1106" spans="1:9" ht="45">
@@ -36663,7 +36663,7 @@
         <v>1215</v>
       </c>
       <c r="C1106" s="27" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D1106" s="25"/>
       <c r="E1106" s="25" t="s">
@@ -36679,18 +36679,18 @@
         <v>21</v>
       </c>
       <c r="I1106" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1107" spans="1:9" ht="45">
       <c r="A1107" s="25" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B1107" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1107" s="27" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D1107" s="25"/>
       <c r="E1107" s="25" t="s">
@@ -36706,7 +36706,7 @@
         <v>21</v>
       </c>
       <c r="I1107" s="28" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1108" spans="1:9" ht="30">
@@ -36717,7 +36717,7 @@
         <v>1118</v>
       </c>
       <c r="C1108" s="27" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D1108" s="25"/>
       <c r="E1108" s="25" t="s">
@@ -36742,7 +36742,7 @@
         <v>1118</v>
       </c>
       <c r="C1109" s="27" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D1109" s="25"/>
       <c r="E1109" s="25" t="s">
@@ -36767,7 +36767,7 @@
         <v>1216</v>
       </c>
       <c r="C1110" s="27" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D1110" s="25"/>
       <c r="E1110" s="25" t="s">
@@ -36792,7 +36792,7 @@
         <v>1216</v>
       </c>
       <c r="C1111" s="27" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D1111" s="25"/>
       <c r="E1111" s="25" t="s">
@@ -36817,7 +36817,7 @@
         <v>1216</v>
       </c>
       <c r="C1112" s="27" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D1112" s="25"/>
       <c r="E1112" s="25" t="s">
@@ -36842,7 +36842,7 @@
         <v>1217</v>
       </c>
       <c r="C1113" s="27" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="D1113" s="25"/>
       <c r="E1113" s="25" t="s">
@@ -36965,21 +36965,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -37028,15 +37019,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -37050,7 +37042,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37065,6 +37057,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
